--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -622,46 +622,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7714705882352942</v>
+        <v>0.7947058823529413</v>
       </c>
       <c r="C2" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E2" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F2" t="n">
         <v>0.97</v>
       </c>
       <c r="G2" t="n">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="I2" t="n">
-        <v>0.16</v>
+        <v>0.72</v>
       </c>
       <c r="J2" t="n">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5</v>
+        <v>0.39</v>
       </c>
       <c r="L2" t="n">
         <v>0.38</v>
       </c>
       <c r="M2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.34</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.4</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -673,13 +673,13 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="T2" t="n">
         <v>0.59</v>
       </c>
       <c r="U2" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="V2" t="n">
         <v>0.98</v>
@@ -691,10 +691,10 @@
         <v>0.99</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
         <v>0.93</v>
@@ -706,25 +706,25 @@
         <v>0.85</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="AG2" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="AI2" t="n">
         <v>0.99</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -34,27 +34,27 @@
     <t>職業</t>
   </si>
   <si>
+    <t>折舊方法</t>
+  </si>
+  <si>
+    <t>被告肇責</t>
+  </si>
+  <si>
+    <t>塗裝</t>
+  </si>
+  <si>
+    <t>工資</t>
+  </si>
+  <si>
+    <t>烤漆</t>
+  </si>
+  <si>
+    <t>鈑金</t>
+  </si>
+  <si>
     <t>耐用年數</t>
   </si>
   <si>
-    <t>折舊方法</t>
-  </si>
-  <si>
-    <t>塗裝</t>
-  </si>
-  <si>
-    <t>工資</t>
-  </si>
-  <si>
-    <t>烤漆</t>
-  </si>
-  <si>
-    <t>鈑金</t>
-  </si>
-  <si>
-    <t>被告肇責</t>
-  </si>
-  <si>
     <t>修車費用</t>
   </si>
   <si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>data/eval/gpt-4o-mini-basic/processed_generate-original.jsonl</t>
+  </si>
+  <si>
+    <t>data/eval/ft:gpt-4o-mini-2024-07-18:widm:advanced-train:9zZnglyr-advanced/processed_generate-original.jsonl</t>
   </si>
   <si>
     <t>data/eval/meta-llama-format-instruct-advanced/processed_generate-checkpoint-600.jsonl</t>
@@ -512,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -645,10 +648,10 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I2">
         <v>37.02102120422777</v>
@@ -663,7 +666,7 @@
         <v>1.644143238154796</v>
       </c>
       <c r="M2">
-        <v>0.9844559585492227</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>41.44567452909261</v>
@@ -752,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.057188314388211</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I3">
         <v>1098.806643698618</v>
@@ -770,7 +773,7 @@
         <v>79.76197331119656</v>
       </c>
       <c r="M3">
-        <v>0.9844559585492227</v>
+        <v>2.057188314388211</v>
       </c>
       <c r="N3">
         <v>12739.32607415921</v>
@@ -859,10 +862,10 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="G4">
-        <v>1.434312110080881</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="H4">
-        <v>0.9512195121951219</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I4">
         <v>566.9022061522351</v>
@@ -877,7 +880,7 @@
         <v>53.44097997512429</v>
       </c>
       <c r="M4">
-        <v>0.9844559585492227</v>
+        <v>1.434312110080881</v>
       </c>
       <c r="N4">
         <v>15790.74708470761</v>
@@ -951,106 +954,106 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>0.9382716049382716</v>
+        <v>0.9867549668874173</v>
       </c>
       <c r="C5">
-        <v>0.05839743174940759</v>
+        <v>0.606596395282168</v>
       </c>
       <c r="D5">
-        <v>0.7833333333333333</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="E5">
-        <v>0.2427594581181809</v>
+        <v>0.2726081025317549</v>
       </c>
       <c r="F5">
-        <v>0.7142857142857143</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G5">
-        <v>1.796530924664629</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="H5">
-        <v>0.8235294117647058</v>
+        <v>0.9896373056994818</v>
       </c>
       <c r="I5">
-        <v>482.3680035388304</v>
+        <v>574.5513206318536</v>
       </c>
       <c r="J5">
-        <v>11694.68926218158</v>
+        <v>3807.540022445687</v>
       </c>
       <c r="K5">
-        <v>74.67141713556093</v>
+        <v>160.5690690930703</v>
       </c>
       <c r="L5">
-        <v>43.05756348736988</v>
+        <v>49.42003344146024</v>
       </c>
       <c r="M5">
-        <v>0.9844559585492227</v>
+        <v>0.2761873363882851</v>
       </c>
       <c r="N5">
-        <v>9064.956932717721</v>
+        <v>12434.65766114816</v>
       </c>
       <c r="O5">
-        <v>6081.017741656365</v>
+        <v>6364.417649986819</v>
       </c>
       <c r="P5">
-        <v>50530.289537906</v>
+        <v>34566.81822327304</v>
       </c>
       <c r="Q5">
-        <v>6228.124104504053</v>
+        <v>31389.22928266446</v>
       </c>
       <c r="R5">
-        <v>0.0491445484804998</v>
+        <v>0.04681329191990109</v>
       </c>
       <c r="S5">
-        <v>1328.954527530335</v>
+        <v>1398.536926746788</v>
       </c>
       <c r="T5">
-        <v>63.7018384588369</v>
+        <v>0.4820962702961493</v>
       </c>
       <c r="U5">
-        <v>20609.04602312023</v>
+        <v>17073.78627095837</v>
       </c>
       <c r="V5">
-        <v>31.07730859304829</v>
+        <v>0.6869955688207215</v>
       </c>
       <c r="W5">
-        <v>0.04204997034986889</v>
+        <v>0.1082578922486002</v>
       </c>
       <c r="X5">
-        <v>1394.916172881335</v>
+        <v>2520.610101357874</v>
       </c>
       <c r="Y5">
-        <v>1956.226309824922</v>
+        <v>964.8348680441648</v>
       </c>
       <c r="Z5">
-        <v>25.89237000662052</v>
+        <v>0.08995577477782554</v>
       </c>
       <c r="AA5">
-        <v>0.1308190792213211</v>
+        <v>0.101638245202165</v>
       </c>
       <c r="AB5">
-        <v>60.81763256181116</v>
+        <v>36.83334320273946</v>
       </c>
       <c r="AC5">
-        <v>1784.335141107944</v>
+        <v>915.1225286147899</v>
       </c>
       <c r="AD5">
-        <v>1.120790921982435</v>
+        <v>0.4327423155194247</v>
       </c>
       <c r="AE5">
-        <v>16831.76949317624</v>
+        <v>3622.574587846608</v>
       </c>
       <c r="AF5">
-        <v>9902.537818370978</v>
+        <v>4984.420148022309</v>
       </c>
       <c r="AG5">
-        <v>3792.102423104161</v>
+        <v>14237.634844387</v>
       </c>
       <c r="AH5">
-        <v>148.3974731132599</v>
+        <v>220.6800966138238</v>
       </c>
       <c r="AI5">
-        <v>3091.183541448773</v>
+        <v>10078.85811089251</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1073,10 +1076,10 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="G6">
-        <v>0.277882377974413</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H6">
-        <v>0.9166666666666666</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I6">
         <v>566.6921101028045</v>
@@ -1091,7 +1094,7 @@
         <v>27.35435567379519</v>
       </c>
       <c r="M6">
-        <v>0.9844559585492227</v>
+        <v>0.277882377974413</v>
       </c>
       <c r="N6">
         <v>10982.70616562661</v>
@@ -1180,10 +1183,10 @@
         <v>0.75</v>
       </c>
       <c r="G7">
-        <v>0.8405975659969435</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="H7">
-        <v>0.7916666666666666</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I7">
         <v>172.403123217799</v>
@@ -1198,7 +1201,7 @@
         <v>28.24834412976112</v>
       </c>
       <c r="M7">
-        <v>0.9844559585492227</v>
+        <v>0.8405975659969435</v>
       </c>
       <c r="N7">
         <v>10915.38675384802</v>
@@ -1287,10 +1290,10 @@
         <v>0.6</v>
       </c>
       <c r="G8">
-        <v>0.07381190363925222</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="H8">
-        <v>0.9230769230769231</v>
+        <v>0.9585492227979274</v>
       </c>
       <c r="I8">
         <v>446.7728546102408</v>
@@ -1305,7 +1308,7 @@
         <v>39.77907353248274</v>
       </c>
       <c r="M8">
-        <v>0.9585492227979274</v>
+        <v>0.07381190363925222</v>
       </c>
       <c r="N8">
         <v>12608.77773747638</v>
@@ -1394,10 +1397,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="G9">
-        <v>1.528754093841935</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="H9">
-        <v>0.8103448275862069</v>
+        <v>0.9792746113989638</v>
       </c>
       <c r="I9">
         <v>584.9939335794871</v>
@@ -1412,7 +1415,7 @@
         <v>273.839553486025</v>
       </c>
       <c r="M9">
-        <v>0.9792746113989638</v>
+        <v>1.528754093841935</v>
       </c>
       <c r="N9">
         <v>11206.08964591998</v>
@@ -1486,106 +1489,106 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>0.9389312977099237</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.6265060039039756</v>
+        <v>0.9739899905113397</v>
       </c>
       <c r="D10">
-        <v>0.9204545454545454</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E10">
-        <v>0.2820171128958512</v>
+        <v>0.7113214739575477</v>
       </c>
       <c r="F10">
-        <v>0.5833333333333334</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2040704743351608</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.9848484848484849</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I10">
-        <v>439.1230502552157</v>
+        <v>37.02102120422777</v>
       </c>
       <c r="J10">
-        <v>1178.266179808862</v>
+        <v>66.18450598416055</v>
       </c>
       <c r="K10">
-        <v>242.8089766449855</v>
+        <v>17.05657711929942</v>
       </c>
       <c r="L10">
-        <v>47.98040645994601</v>
+        <v>1.494934763415977</v>
       </c>
       <c r="M10">
-        <v>0.9740932642487047</v>
+        <v>0.07373219257548849</v>
       </c>
       <c r="N10">
-        <v>14428.73218493148</v>
+        <v>298.682876547718</v>
       </c>
       <c r="O10">
-        <v>726.007278802468</v>
+        <v>617.0457662625157</v>
       </c>
       <c r="P10">
-        <v>20773.55607181341</v>
+        <v>2341.397234698376</v>
       </c>
       <c r="Q10">
-        <v>13822.20592005453</v>
+        <v>21.51189439004498</v>
       </c>
       <c r="R10">
-        <v>0.0491445484804998</v>
+        <v>0.02430038698298098</v>
       </c>
       <c r="S10">
-        <v>1413.318115262746</v>
+        <v>458.551435813683</v>
       </c>
       <c r="T10">
-        <v>0.611622609559207</v>
+        <v>33.09784425654357</v>
       </c>
       <c r="U10">
-        <v>10274.81427120904</v>
+        <v>170.6676771360175</v>
       </c>
       <c r="V10">
-        <v>3.381861162433613</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.08175770582435495</v>
+        <v>0.002331256560598703</v>
       </c>
       <c r="X10">
-        <v>2956.347261686765</v>
+        <v>88.15299833061448</v>
       </c>
       <c r="Y10">
-        <v>465.2070494830216</v>
+        <v>1754.84338786436</v>
       </c>
       <c r="Z10">
-        <v>25.89237000662052</v>
+        <v>5.077720142309438E-06</v>
       </c>
       <c r="AA10">
-        <v>0.1427845118875273</v>
+        <v>0.08967281253595884</v>
       </c>
       <c r="AB10">
-        <v>1214.214519568973</v>
+        <v>35.64534428258619</v>
       </c>
       <c r="AC10">
-        <v>358.3566609159889</v>
+        <v>219.8657312977705</v>
       </c>
       <c r="AD10">
-        <v>0.0981668957969048</v>
+        <v>0.02383906454972666</v>
       </c>
       <c r="AE10">
-        <v>2853.888783417534</v>
+        <v>9.122307452846828</v>
       </c>
       <c r="AF10">
-        <v>6204.971516098207</v>
+        <v>1570.641474036553</v>
       </c>
       <c r="AG10">
-        <v>16126.00387758383</v>
+        <v>4.707230343198907</v>
       </c>
       <c r="AH10">
-        <v>491.8357839556213</v>
+        <v>14.71479203716176</v>
       </c>
       <c r="AI10">
-        <v>16218.12021421546</v>
+        <v>115.9771838218306</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1593,106 +1596,106 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <v>0.1014492753623188</v>
+        <v>0.9389312977099237</v>
       </c>
       <c r="C11">
-        <v>0.5484692688876133</v>
+        <v>0.6265060039039756</v>
       </c>
       <c r="D11">
-        <v>0.48</v>
+        <v>0.9204545454545454</v>
       </c>
       <c r="E11">
-        <v>0.3458308320724666</v>
+        <v>0.2820171128958512</v>
       </c>
       <c r="F11">
-        <v>0.8</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="G11">
-        <v>1.048232554330602</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="H11">
-        <v>0.9512195121951219</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="I11">
-        <v>235.0196787957344</v>
+        <v>439.1230502552157</v>
       </c>
       <c r="J11">
-        <v>1722.231116416934</v>
+        <v>1178.266179808862</v>
       </c>
       <c r="K11">
-        <v>312.6067562119705</v>
+        <v>242.8089766449855</v>
       </c>
       <c r="L11">
-        <v>27.11608304094456</v>
+        <v>47.98040645994601</v>
       </c>
       <c r="M11">
-        <v>0.9844559585492227</v>
+        <v>0.2040704743351608</v>
       </c>
       <c r="N11">
-        <v>9256.674498971523</v>
+        <v>14428.73218493148</v>
       </c>
       <c r="O11">
-        <v>2264.699512803724</v>
+        <v>726.007278802468</v>
       </c>
       <c r="P11">
-        <v>30864.16378453115</v>
+        <v>20773.55607181341</v>
       </c>
       <c r="Q11">
-        <v>10841.04412846</v>
+        <v>13822.20592005453</v>
       </c>
       <c r="R11">
-        <v>1.986812552101142</v>
+        <v>0.0491445484804998</v>
       </c>
       <c r="S11">
-        <v>1996.167576657228</v>
+        <v>1413.318115262746</v>
       </c>
       <c r="T11">
-        <v>0.5374772645281498</v>
+        <v>0.611622609559207</v>
       </c>
       <c r="U11">
-        <v>7209.663734861214</v>
+        <v>10274.81427120904</v>
       </c>
       <c r="V11">
-        <v>33.82702661976779</v>
+        <v>3.381861162433613</v>
       </c>
       <c r="W11">
-        <v>0.04051272953420422</v>
+        <v>0.08175770582435495</v>
       </c>
       <c r="X11">
-        <v>3774.229417648638</v>
+        <v>2956.347261686765</v>
       </c>
       <c r="Y11">
-        <v>3951.271745293564</v>
+        <v>465.2070494830216</v>
       </c>
       <c r="Z11">
         <v>25.89237000662052</v>
       </c>
       <c r="AA11">
-        <v>0.118853646555115</v>
+        <v>0.1427845118875273</v>
       </c>
       <c r="AB11">
-        <v>36.39636302958846</v>
+        <v>1214.214519568973</v>
       </c>
       <c r="AC11">
-        <v>1784.335141107944</v>
+        <v>358.3566609159889</v>
       </c>
       <c r="AD11">
-        <v>0.6788236552204792</v>
+        <v>0.0981668957969048</v>
       </c>
       <c r="AE11">
-        <v>11642.93041446455</v>
+        <v>2853.888783417534</v>
       </c>
       <c r="AF11">
-        <v>9584.807203854027</v>
+        <v>6204.971516098207</v>
       </c>
       <c r="AG11">
-        <v>1672.921485878485</v>
+        <v>16126.00387758383</v>
       </c>
       <c r="AH11">
-        <v>8776.643877394272</v>
+        <v>491.8357839556213</v>
       </c>
       <c r="AI11">
-        <v>12148.52437719335</v>
+        <v>16218.12021421546</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1700,106 +1703,106 @@
         <v>45</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C12">
-        <v>0.6741516658365916</v>
+        <v>0.5484692688876133</v>
       </c>
       <c r="D12">
-        <v>0.9351851851851852</v>
+        <v>0.48</v>
       </c>
       <c r="E12">
-        <v>0.2571668525068772</v>
+        <v>0.3458308320724666</v>
       </c>
       <c r="F12">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G12">
-        <v>0.06694660443014412</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="H12">
-        <v>0.9320388349514563</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I12">
-        <v>434.5572378028536</v>
+        <v>235.0196787957344</v>
       </c>
       <c r="J12">
-        <v>1462.447379406776</v>
+        <v>1722.231116416934</v>
       </c>
       <c r="K12">
-        <v>127.3954318843909</v>
+        <v>312.6067562119705</v>
       </c>
       <c r="L12">
-        <v>41.28905779226052</v>
+        <v>27.11608304094456</v>
       </c>
       <c r="M12">
-        <v>0.9585492227979274</v>
+        <v>1.048232554330602</v>
       </c>
       <c r="N12">
-        <v>13040.27220937202</v>
+        <v>9256.674498971523</v>
       </c>
       <c r="O12">
-        <v>6428.26466494816</v>
+        <v>2264.699512803724</v>
       </c>
       <c r="P12">
-        <v>25626.39073023328</v>
+        <v>30864.16378453115</v>
       </c>
       <c r="Q12">
-        <v>106464.9143943003</v>
+        <v>10841.04412846</v>
       </c>
       <c r="R12">
-        <v>0.07336821161923986</v>
+        <v>1.986812552101142</v>
       </c>
       <c r="S12">
-        <v>1774.177425935129</v>
+        <v>1996.167576657228</v>
       </c>
       <c r="T12">
-        <v>0.3958298653384151</v>
+        <v>0.5374772645281498</v>
       </c>
       <c r="U12">
-        <v>29743.5609759386</v>
+        <v>7209.663734861214</v>
       </c>
       <c r="V12">
-        <v>6.058043974587382</v>
+        <v>33.82702661976779</v>
       </c>
       <c r="W12">
-        <v>0.01043518953396069</v>
+        <v>0.04051272953420422</v>
       </c>
       <c r="X12">
-        <v>667.9114759203879</v>
+        <v>3774.229417648638</v>
       </c>
       <c r="Y12">
-        <v>282.9800902221477</v>
+        <v>3951.271745293564</v>
       </c>
       <c r="Z12">
-        <v>0.06404947079390244</v>
+        <v>25.89237000662052</v>
       </c>
       <c r="AA12">
-        <v>0.1136036778683711</v>
+        <v>0.118853646555115</v>
       </c>
       <c r="AB12">
-        <v>59.67513058506894</v>
+        <v>36.39636302958846</v>
       </c>
       <c r="AC12">
-        <v>4052.167535191161</v>
+        <v>1784.335141107944</v>
       </c>
       <c r="AD12">
-        <v>0.7098688105275432</v>
+        <v>0.6788236552204792</v>
       </c>
       <c r="AE12">
-        <v>7484.005140046813</v>
+        <v>11642.93041446455</v>
       </c>
       <c r="AF12">
-        <v>6388.128502505137</v>
+        <v>9584.807203854027</v>
       </c>
       <c r="AG12">
-        <v>12701.89421329685</v>
+        <v>1672.921485878485</v>
       </c>
       <c r="AH12">
-        <v>183.9787728728856</v>
+        <v>8776.643877394272</v>
       </c>
       <c r="AI12">
-        <v>13695.3229006375</v>
+        <v>12148.52437719335</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1810,102 +1813,209 @@
         <v>1</v>
       </c>
       <c r="C13">
+        <v>0.6741516658365916</v>
+      </c>
+      <c r="D13">
+        <v>0.9351851851851852</v>
+      </c>
+      <c r="E13">
+        <v>0.2571668525068772</v>
+      </c>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+      <c r="G13">
+        <v>0.9320388349514563</v>
+      </c>
+      <c r="H13">
+        <v>0.9585492227979274</v>
+      </c>
+      <c r="I13">
+        <v>434.5572378028536</v>
+      </c>
+      <c r="J13">
+        <v>1462.447379406776</v>
+      </c>
+      <c r="K13">
+        <v>127.3954318843909</v>
+      </c>
+      <c r="L13">
+        <v>41.28905779226052</v>
+      </c>
+      <c r="M13">
+        <v>0.06694660443014412</v>
+      </c>
+      <c r="N13">
+        <v>13040.27220937202</v>
+      </c>
+      <c r="O13">
+        <v>6428.26466494816</v>
+      </c>
+      <c r="P13">
+        <v>25626.39073023328</v>
+      </c>
+      <c r="Q13">
+        <v>106464.9143943003</v>
+      </c>
+      <c r="R13">
+        <v>0.07336821161923986</v>
+      </c>
+      <c r="S13">
+        <v>1774.177425935129</v>
+      </c>
+      <c r="T13">
+        <v>0.3958298653384151</v>
+      </c>
+      <c r="U13">
+        <v>29743.5609759386</v>
+      </c>
+      <c r="V13">
+        <v>6.058043974587382</v>
+      </c>
+      <c r="W13">
+        <v>0.01043518953396069</v>
+      </c>
+      <c r="X13">
+        <v>667.9114759203879</v>
+      </c>
+      <c r="Y13">
+        <v>282.9800902221477</v>
+      </c>
+      <c r="Z13">
+        <v>0.06404947079390244</v>
+      </c>
+      <c r="AA13">
+        <v>0.1136036778683711</v>
+      </c>
+      <c r="AB13">
+        <v>59.67513058506894</v>
+      </c>
+      <c r="AC13">
+        <v>4052.167535191161</v>
+      </c>
+      <c r="AD13">
+        <v>0.7098688105275432</v>
+      </c>
+      <c r="AE13">
+        <v>7484.005140046813</v>
+      </c>
+      <c r="AF13">
+        <v>6388.128502505137</v>
+      </c>
+      <c r="AG13">
+        <v>12701.89421329685</v>
+      </c>
+      <c r="AH13">
+        <v>183.9787728728856</v>
+      </c>
+      <c r="AI13">
+        <v>13695.3229006375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.7600828065966183</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.9345794392523364</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.2966208282307332</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.7222222222222222</v>
       </c>
-      <c r="G13">
+      <c r="G14">
+        <v>0.9320388349514563</v>
+      </c>
+      <c r="H14">
+        <v>0.9844559585492227</v>
+      </c>
+      <c r="I14">
+        <v>436.4040674637876</v>
+      </c>
+      <c r="J14">
+        <v>1378.652131982468</v>
+      </c>
+      <c r="K14">
+        <v>253.2821070191641</v>
+      </c>
+      <c r="L14">
+        <v>28.08018763907472</v>
+      </c>
+      <c r="M14">
         <v>0.08926213924019215</v>
       </c>
-      <c r="H13">
-        <v>0.9320388349514563</v>
-      </c>
-      <c r="I13">
-        <v>436.4040674637876</v>
-      </c>
-      <c r="J13">
-        <v>1378.652131982468</v>
-      </c>
-      <c r="K13">
-        <v>253.2821070191641</v>
-      </c>
-      <c r="L13">
-        <v>28.08018763907472</v>
-      </c>
-      <c r="M13">
-        <v>0.9844559585492227</v>
-      </c>
-      <c r="N13">
+      <c r="N14">
         <v>13459.45771436664</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>6235.33115417501</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>253051.0033401096</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>22416.7150335599</v>
       </c>
-      <c r="R13">
+      <c r="R14">
         <v>0.04521462212869561</v>
       </c>
-      <c r="S13">
+      <c r="S14">
         <v>1882.146843636079</v>
       </c>
-      <c r="T13">
+      <c r="T14">
         <v>0.2331465734979018</v>
       </c>
-      <c r="U13">
+      <c r="U14">
         <v>37301.39294268027</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <v>0.3543770106013464</v>
       </c>
-      <c r="W13">
+      <c r="W14">
         <v>0.0227482744723457</v>
       </c>
-      <c r="X13">
+      <c r="X14">
         <v>462.7374725908535</v>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <v>505.6104555575493</v>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <v>0.006844425820848017</v>
       </c>
-      <c r="AA13">
+      <c r="AA14">
         <v>0.123953780012213</v>
       </c>
-      <c r="AB13">
+      <c r="AB14">
         <v>39.41971046784125</v>
       </c>
-      <c r="AC13">
+      <c r="AC14">
         <v>364.1650606960645</v>
       </c>
-      <c r="AD13">
+      <c r="AD14">
         <v>1.25886830285055</v>
       </c>
-      <c r="AE13">
+      <c r="AE14">
         <v>8055.709045054989</v>
       </c>
-      <c r="AF13">
+      <c r="AF14">
         <v>3573.093193670457</v>
       </c>
-      <c r="AG13">
+      <c r="AG14">
         <v>9840.354793369663</v>
       </c>
-      <c r="AH13">
+      <c r="AH14">
         <v>185.021253435275</v>
       </c>
-      <c r="AI13">
+      <c r="AI14">
         <v>5727.331000956837</v>
       </c>
     </row>

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -124,6 +124,9 @@
     <t>data/eval/gpt-0125-finetuning-advanced/processed_generate.jsonl</t>
   </si>
   <si>
+    <t>data/eval/ft-gpt-4o-mini-2024-07-18/processed_generate-original.jsonl</t>
+  </si>
+  <si>
     <t>data/eval/re-format/processed_generate-original.jsonl</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>data/eval/gpt-4o-mini-basic/processed_generate-original.jsonl</t>
-  </si>
-  <si>
-    <t>data/eval/ft:gpt-4o-mini-2024-07-18:widm:advanced-train:9zZnglyr-advanced/processed_generate-original.jsonl</t>
   </si>
   <si>
     <t>data/eval/meta-llama-format-instruct-advanced/processed_generate-checkpoint-600.jsonl</t>
@@ -740,19 +740,19 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>0.8636363636363636</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.6703840391388737</v>
+        <v>0.9739899905113397</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E3">
-        <v>0.7997681258132094</v>
+        <v>0.7113214739575477</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -761,85 +761,85 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="I3">
-        <v>1098.806643698618</v>
+        <v>37.02102120422777</v>
       </c>
       <c r="J3">
-        <v>1608.334409971814</v>
+        <v>66.18450598416055</v>
       </c>
       <c r="K3">
-        <v>362.6773198053953</v>
+        <v>17.05657711929942</v>
       </c>
       <c r="L3">
-        <v>79.76197331119656</v>
+        <v>1.494934763415977</v>
       </c>
       <c r="M3">
-        <v>2.057188314388211</v>
+        <v>0.07373219257548849</v>
       </c>
       <c r="N3">
-        <v>12739.32607415921</v>
+        <v>298.682876547718</v>
       </c>
       <c r="O3">
-        <v>6319.015590488922</v>
+        <v>617.0457662625157</v>
       </c>
       <c r="P3">
-        <v>65867.94043293898</v>
+        <v>2341.397234698376</v>
       </c>
       <c r="Q3">
-        <v>8382.112343180483</v>
+        <v>21.51189439004498</v>
       </c>
       <c r="R3">
-        <v>1.991993899251401</v>
+        <v>0.02430038698298098</v>
       </c>
       <c r="S3">
-        <v>2000.882506069727</v>
+        <v>458.551435813683</v>
       </c>
       <c r="T3">
-        <v>63.7018384588369</v>
+        <v>33.09784425654357</v>
       </c>
       <c r="U3">
-        <v>29351.67087851042</v>
+        <v>170.6676771360175</v>
       </c>
       <c r="V3">
-        <v>31.07730859304829</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.305288102887147</v>
+        <v>0.002331256560598703</v>
       </c>
       <c r="X3">
-        <v>159.5451119006754</v>
+        <v>88.15299833061448</v>
       </c>
       <c r="Y3">
-        <v>2892.20283922143</v>
+        <v>1754.84338786436</v>
       </c>
       <c r="Z3">
-        <v>25.89237000662052</v>
+        <v>5.077720142309438E-06</v>
       </c>
       <c r="AA3">
-        <v>0.1054057198809072</v>
+        <v>0.08967281253595884</v>
       </c>
       <c r="AB3">
-        <v>432.5069487923142</v>
+        <v>35.64534428258619</v>
       </c>
       <c r="AC3">
-        <v>522.387166752638</v>
+        <v>219.8657312977705</v>
       </c>
       <c r="AD3">
-        <v>0.2659798284936385</v>
+        <v>0.02383906454972666</v>
       </c>
       <c r="AE3">
-        <v>4172.396753520147</v>
+        <v>9.122307452846828</v>
       </c>
       <c r="AF3">
-        <v>18959.45533544857</v>
+        <v>1570.641474036553</v>
       </c>
       <c r="AG3">
-        <v>1981.71979563968</v>
+        <v>4.707230343198907</v>
       </c>
       <c r="AH3">
-        <v>37.35475494120223</v>
+        <v>14.71479203716176</v>
       </c>
       <c r="AI3">
-        <v>4641.966087163501</v>
+        <v>115.9771838218306</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -847,106 +847,106 @@
         <v>37</v>
       </c>
       <c r="B4">
-        <v>0.9857142857142858</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>0.3869131167016205</v>
+        <v>0.6703840391388737</v>
       </c>
       <c r="D4">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0.2696332499932761</v>
+        <v>0.7997681258132094</v>
       </c>
       <c r="F4">
-        <v>0.6153846153846154</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9512195121951219</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0.9844559585492227</v>
       </c>
       <c r="I4">
-        <v>566.9022061522351</v>
+        <v>1098.806643698618</v>
       </c>
       <c r="J4">
-        <v>1650.812370033635</v>
+        <v>1608.334409971814</v>
       </c>
       <c r="K4">
-        <v>185.6652554474654</v>
+        <v>362.6773198053953</v>
       </c>
       <c r="L4">
-        <v>53.44097997512429</v>
+        <v>79.76197331119656</v>
       </c>
       <c r="M4">
-        <v>1.434312110080881</v>
+        <v>2.057188314388211</v>
       </c>
       <c r="N4">
-        <v>15790.74708470761</v>
+        <v>12739.32607415921</v>
       </c>
       <c r="O4">
-        <v>4565.151569590509</v>
+        <v>6319.015590488922</v>
       </c>
       <c r="P4">
-        <v>35961.1652338032</v>
+        <v>65867.94043293898</v>
       </c>
       <c r="Q4">
-        <v>15563.39290816062</v>
+        <v>8382.112343180483</v>
       </c>
       <c r="R4">
-        <v>0.04681329191990109</v>
+        <v>1.991993899251401</v>
       </c>
       <c r="S4">
-        <v>1365.66290269483</v>
+        <v>2000.882506069727</v>
       </c>
       <c r="T4">
-        <v>0.4124098004099231</v>
+        <v>63.7018384588369</v>
       </c>
       <c r="U4">
-        <v>20579.51865662078</v>
+        <v>29351.67087851042</v>
       </c>
       <c r="V4">
         <v>31.07730859304829</v>
       </c>
       <c r="W4">
-        <v>0.04454093928985342</v>
+        <v>0.305288102887147</v>
       </c>
       <c r="X4">
-        <v>1503.396930194064</v>
+        <v>159.5451119006754</v>
       </c>
       <c r="Y4">
-        <v>1120.854560049039</v>
+        <v>2892.20283922143</v>
       </c>
       <c r="Z4">
         <v>25.89237000662052</v>
       </c>
       <c r="AA4">
-        <v>0.101638245202165</v>
+        <v>0.1054057198809072</v>
       </c>
       <c r="AB4">
-        <v>59.78192908836191</v>
+        <v>432.5069487923142</v>
       </c>
       <c r="AC4">
-        <v>401.9248934119022</v>
+        <v>522.387166752638</v>
       </c>
       <c r="AD4">
-        <v>0.2009787292613955</v>
+        <v>0.2659798284936385</v>
       </c>
       <c r="AE4">
-        <v>17217.48645523432</v>
+        <v>4172.396753520147</v>
       </c>
       <c r="AF4">
-        <v>5161.21624593398</v>
+        <v>18959.45533544857</v>
       </c>
       <c r="AG4">
-        <v>14365.15615850061</v>
+        <v>1981.71979563968</v>
       </c>
       <c r="AH4">
-        <v>145.1312405553705</v>
+        <v>37.35475494120223</v>
       </c>
       <c r="AI4">
-        <v>5422.869512364467</v>
+        <v>4641.966087163501</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -954,106 +954,106 @@
         <v>38</v>
       </c>
       <c r="B5">
-        <v>0.9867549668874173</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="C5">
-        <v>0.606596395282168</v>
+        <v>0.3869131167016205</v>
       </c>
       <c r="D5">
-        <v>0.8224299065420561</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="E5">
-        <v>0.2726081025317549</v>
+        <v>0.2696332499932761</v>
       </c>
       <c r="F5">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="G5">
-        <v>0.8252427184466019</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="H5">
-        <v>0.9896373056994818</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I5">
-        <v>574.5513206318536</v>
+        <v>566.9022061522351</v>
       </c>
       <c r="J5">
-        <v>3807.540022445687</v>
+        <v>1650.812370033635</v>
       </c>
       <c r="K5">
-        <v>160.5690690930703</v>
+        <v>185.6652554474654</v>
       </c>
       <c r="L5">
-        <v>49.42003344146024</v>
+        <v>53.44097997512429</v>
       </c>
       <c r="M5">
-        <v>0.2761873363882851</v>
+        <v>1.434312110080881</v>
       </c>
       <c r="N5">
-        <v>12434.65766114816</v>
+        <v>15790.74708470761</v>
       </c>
       <c r="O5">
-        <v>6364.417649986819</v>
+        <v>4565.151569590509</v>
       </c>
       <c r="P5">
-        <v>34566.81822327304</v>
+        <v>35961.1652338032</v>
       </c>
       <c r="Q5">
-        <v>31389.22928266446</v>
+        <v>15563.39290816062</v>
       </c>
       <c r="R5">
         <v>0.04681329191990109</v>
       </c>
       <c r="S5">
-        <v>1398.536926746788</v>
+        <v>1365.66290269483</v>
       </c>
       <c r="T5">
-        <v>0.4820962702961493</v>
+        <v>0.4124098004099231</v>
       </c>
       <c r="U5">
-        <v>17073.78627095837</v>
+        <v>20579.51865662078</v>
       </c>
       <c r="V5">
-        <v>0.6869955688207215</v>
+        <v>31.07730859304829</v>
       </c>
       <c r="W5">
-        <v>0.1082578922486002</v>
+        <v>0.04454093928985342</v>
       </c>
       <c r="X5">
-        <v>2520.610101357874</v>
+        <v>1503.396930194064</v>
       </c>
       <c r="Y5">
-        <v>964.8348680441648</v>
+        <v>1120.854560049039</v>
       </c>
       <c r="Z5">
-        <v>0.08995577477782554</v>
+        <v>25.89237000662052</v>
       </c>
       <c r="AA5">
         <v>0.101638245202165</v>
       </c>
       <c r="AB5">
-        <v>36.83334320273946</v>
+        <v>59.78192908836191</v>
       </c>
       <c r="AC5">
-        <v>915.1225286147899</v>
+        <v>401.9248934119022</v>
       </c>
       <c r="AD5">
-        <v>0.4327423155194247</v>
+        <v>0.2009787292613955</v>
       </c>
       <c r="AE5">
-        <v>3622.574587846608</v>
+        <v>17217.48645523432</v>
       </c>
       <c r="AF5">
-        <v>4984.420148022309</v>
+        <v>5161.21624593398</v>
       </c>
       <c r="AG5">
-        <v>14237.634844387</v>
+        <v>14365.15615850061</v>
       </c>
       <c r="AH5">
-        <v>220.6800966138238</v>
+        <v>145.1312405553705</v>
       </c>
       <c r="AI5">
-        <v>10078.85811089251</v>
+        <v>5422.869512364467</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1061,106 +1061,106 @@
         <v>39</v>
       </c>
       <c r="B6">
-        <v>0.7806451612903226</v>
+        <v>0.9867549668874173</v>
       </c>
       <c r="C6">
-        <v>0.5963241056825951</v>
+        <v>0.606596395282168</v>
       </c>
       <c r="D6">
-        <v>0.8584905660377359</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="E6">
-        <v>0.4082970132323891</v>
+        <v>0.2726081025317549</v>
       </c>
       <c r="F6">
-        <v>0.4444444444444444</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="G6">
-        <v>0.9166666666666666</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="H6">
-        <v>0.9844559585492227</v>
+        <v>0.9896373056994818</v>
       </c>
       <c r="I6">
-        <v>566.6921101028045</v>
+        <v>574.5513206318536</v>
       </c>
       <c r="J6">
-        <v>2261.33775843964</v>
+        <v>3807.540022445687</v>
       </c>
       <c r="K6">
-        <v>255.620016712235</v>
+        <v>160.5690690930703</v>
       </c>
       <c r="L6">
-        <v>27.35435567379519</v>
+        <v>49.42003344146024</v>
       </c>
       <c r="M6">
-        <v>0.277882377974413</v>
+        <v>0.2761873363882851</v>
       </c>
       <c r="N6">
-        <v>10982.70616562661</v>
+        <v>12434.65766114816</v>
       </c>
       <c r="O6">
-        <v>2429.407273070654</v>
+        <v>6364.417649986819</v>
       </c>
       <c r="P6">
-        <v>30579.67118907514</v>
+        <v>34566.81822327304</v>
       </c>
       <c r="Q6">
-        <v>16164.21442342856</v>
+        <v>31389.22928266446</v>
       </c>
       <c r="R6">
-        <v>1.991993899251401</v>
+        <v>0.04681329191990109</v>
       </c>
       <c r="S6">
-        <v>3297.38059493552</v>
+        <v>1398.536926746788</v>
       </c>
       <c r="T6">
-        <v>63.7018384588369</v>
+        <v>0.4820962702961493</v>
       </c>
       <c r="U6">
-        <v>10414.31375231952</v>
+        <v>17073.78627095837</v>
       </c>
       <c r="V6">
-        <v>21.82847065839226</v>
+        <v>0.6869955688207215</v>
       </c>
       <c r="W6">
-        <v>0.05979674563833264</v>
+        <v>0.1082578922486002</v>
       </c>
       <c r="X6">
-        <v>4156.975248560701</v>
+        <v>2520.610101357874</v>
       </c>
       <c r="Y6">
-        <v>4012.373743650776</v>
+        <v>964.8348680441648</v>
       </c>
       <c r="Z6">
-        <v>0.06404947079390244</v>
+        <v>0.08995577477782554</v>
       </c>
       <c r="AA6">
-        <v>0.123953780012213</v>
+        <v>0.101638245202165</v>
       </c>
       <c r="AB6">
-        <v>59.78192908836191</v>
+        <v>36.83334320273946</v>
       </c>
       <c r="AC6">
-        <v>397.4727048921188</v>
+        <v>915.1225286147899</v>
       </c>
       <c r="AD6">
-        <v>0.210455155482066</v>
+        <v>0.4327423155194247</v>
       </c>
       <c r="AE6">
-        <v>5490.853741127895</v>
+        <v>3622.574587846608</v>
       </c>
       <c r="AF6">
-        <v>6321.157778703541</v>
+        <v>4984.420148022309</v>
       </c>
       <c r="AG6">
-        <v>5565.245643505668</v>
+        <v>14237.634844387</v>
       </c>
       <c r="AH6">
-        <v>1159.376311014817</v>
+        <v>220.6800966138238</v>
       </c>
       <c r="AI6">
-        <v>10511.45274726943</v>
+        <v>10078.85811089251</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1168,106 +1168,106 @@
         <v>40</v>
       </c>
       <c r="B7">
-        <v>0.2666666666666667</v>
+        <v>0.7806451612903226</v>
       </c>
       <c r="C7">
-        <v>0.4847566821716522</v>
+        <v>0.5963241056825951</v>
       </c>
       <c r="D7">
-        <v>0.8783783783783784</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="E7">
-        <v>0.2590979782933724</v>
+        <v>0.4082970132323891</v>
       </c>
       <c r="F7">
-        <v>0.75</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G7">
-        <v>0.7916666666666666</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="H7">
         <v>0.9844559585492227</v>
       </c>
       <c r="I7">
-        <v>172.403123217799</v>
+        <v>566.6921101028045</v>
       </c>
       <c r="J7">
-        <v>1840.280742867435</v>
+        <v>2261.33775843964</v>
       </c>
       <c r="K7">
-        <v>306.6665782364338</v>
+        <v>255.620016712235</v>
       </c>
       <c r="L7">
-        <v>28.24834412976112</v>
+        <v>27.35435567379519</v>
       </c>
       <c r="M7">
-        <v>0.8405975659969435</v>
+        <v>0.277882377974413</v>
       </c>
       <c r="N7">
-        <v>10915.38675384802</v>
+        <v>10982.70616562661</v>
       </c>
       <c r="O7">
-        <v>3331.16804186463</v>
+        <v>2429.407273070654</v>
       </c>
       <c r="P7">
-        <v>34991.32675873873</v>
+        <v>30579.67118907514</v>
       </c>
       <c r="Q7">
-        <v>14299.39865850673</v>
+        <v>16164.21442342856</v>
       </c>
       <c r="R7">
-        <v>0.0478388233404102</v>
+        <v>1.991993899251401</v>
       </c>
       <c r="S7">
-        <v>1456.833980187045</v>
+        <v>3297.38059493552</v>
       </c>
       <c r="T7">
-        <v>0.5080025742800723</v>
+        <v>63.7018384588369</v>
       </c>
       <c r="U7">
-        <v>5289.887553989578</v>
+        <v>10414.31375231952</v>
       </c>
       <c r="V7">
-        <v>0.3108601058374041</v>
+        <v>21.82847065839226</v>
       </c>
       <c r="W7">
-        <v>0.07665661444064811</v>
+        <v>0.05979674563833264</v>
       </c>
       <c r="X7">
-        <v>2113.581062859599</v>
+        <v>4156.975248560701</v>
       </c>
       <c r="Y7">
-        <v>718.9783223415999</v>
+        <v>4012.373743650776</v>
       </c>
       <c r="Z7">
-        <v>11.11241757874931</v>
+        <v>0.06404947079390244</v>
       </c>
       <c r="AA7">
-        <v>0.1204689770774792</v>
+        <v>0.123953780012213</v>
       </c>
       <c r="AB7">
-        <v>60.40998356180931</v>
+        <v>59.78192908836191</v>
       </c>
       <c r="AC7">
-        <v>1744.433403323337</v>
+        <v>397.4727048921188</v>
       </c>
       <c r="AD7">
-        <v>0.5575671682573679</v>
+        <v>0.210455155482066</v>
       </c>
       <c r="AE7">
-        <v>4216.471717021682</v>
+        <v>5490.853741127895</v>
       </c>
       <c r="AF7">
-        <v>8408.875012253733</v>
+        <v>6321.157778703541</v>
       </c>
       <c r="AG7">
-        <v>3224.571864371669</v>
+        <v>5565.245643505668</v>
       </c>
       <c r="AH7">
-        <v>2760.210974292431</v>
+        <v>1159.376311014817</v>
       </c>
       <c r="AI7">
-        <v>9115.523104930644</v>
+        <v>10511.45274726943</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1275,106 +1275,106 @@
         <v>41</v>
       </c>
       <c r="B8">
-        <v>0.9807692307692307</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C8">
-        <v>0.6587172464357003</v>
+        <v>0.4847566821716522</v>
       </c>
       <c r="D8">
-        <v>0.9444444444444444</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="E8">
-        <v>0.2479075932476179</v>
+        <v>0.2590979782933724</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="G8">
-        <v>0.9230769230769231</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="H8">
-        <v>0.9585492227979274</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="I8">
-        <v>446.7728546102408</v>
+        <v>172.403123217799</v>
       </c>
       <c r="J8">
-        <v>1253.565216211023</v>
+        <v>1840.280742867435</v>
       </c>
       <c r="K8">
-        <v>179.0436404838594</v>
+        <v>306.6665782364338</v>
       </c>
       <c r="L8">
-        <v>39.77907353248274</v>
+        <v>28.24834412976112</v>
       </c>
       <c r="M8">
-        <v>0.07381190363925222</v>
+        <v>0.8405975659969435</v>
       </c>
       <c r="N8">
-        <v>12608.77773747638</v>
+        <v>10915.38675384802</v>
       </c>
       <c r="O8">
-        <v>6557.855470050718</v>
+        <v>3331.16804186463</v>
       </c>
       <c r="P8">
-        <v>30541.56420773722</v>
+        <v>34991.32675873873</v>
       </c>
       <c r="Q8">
-        <v>29982.87286319684</v>
+        <v>14299.39865850673</v>
       </c>
       <c r="R8">
-        <v>0.07336821161923986</v>
+        <v>0.0478388233404102</v>
       </c>
       <c r="S8">
-        <v>1774.177425935129</v>
+        <v>1456.833980187045</v>
       </c>
       <c r="T8">
-        <v>0.386503496426</v>
+        <v>0.5080025742800723</v>
       </c>
       <c r="U8">
-        <v>27577.43374144641</v>
+        <v>5289.887553989578</v>
       </c>
       <c r="V8">
-        <v>0.2507569753222116</v>
+        <v>0.3108601058374041</v>
       </c>
       <c r="W8">
-        <v>0.01040151125459107</v>
+        <v>0.07665661444064811</v>
       </c>
       <c r="X8">
-        <v>696.2395251507488</v>
+        <v>2113.581062859599</v>
       </c>
       <c r="Y8">
-        <v>73.75516274512059</v>
+        <v>718.9783223415999</v>
       </c>
       <c r="Z8">
-        <v>0.06404947079390244</v>
+        <v>11.11241757874931</v>
       </c>
       <c r="AA8">
-        <v>0.101638245202165</v>
+        <v>0.1204689770774792</v>
       </c>
       <c r="AB8">
-        <v>36.83334320273946</v>
+        <v>60.40998356180931</v>
       </c>
       <c r="AC8">
-        <v>410.7113212078366</v>
+        <v>1744.433403323337</v>
       </c>
       <c r="AD8">
-        <v>0.8559034444431445</v>
+        <v>0.5575671682573679</v>
       </c>
       <c r="AE8">
-        <v>6811.30109128451</v>
+        <v>4216.471717021682</v>
       </c>
       <c r="AF8">
-        <v>5054.480034891938</v>
+        <v>8408.875012253733</v>
       </c>
       <c r="AG8">
-        <v>11680.34478217173</v>
+        <v>3224.571864371669</v>
       </c>
       <c r="AH8">
-        <v>184.0216904495862</v>
+        <v>2760.210974292431</v>
       </c>
       <c r="AI8">
-        <v>166352.0121285859</v>
+        <v>9115.523104930644</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1382,106 +1382,106 @@
         <v>42</v>
       </c>
       <c r="B9">
-        <v>0.9692307692307692</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="C9">
-        <v>0.03751185440075841</v>
+        <v>0.6587172464357003</v>
       </c>
       <c r="D9">
-        <v>0.7738095238095238</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E9">
-        <v>0.2636685947519437</v>
+        <v>0.2479075932476179</v>
       </c>
       <c r="F9">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="G9">
-        <v>0.8103448275862069</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="H9">
-        <v>0.9792746113989638</v>
+        <v>0.9585492227979274</v>
       </c>
       <c r="I9">
-        <v>584.9939335794871</v>
+        <v>446.7728546102408</v>
       </c>
       <c r="J9">
-        <v>724.4535084117379</v>
+        <v>1253.565216211023</v>
       </c>
       <c r="K9">
-        <v>211.4571712510546</v>
+        <v>179.0436404838594</v>
       </c>
       <c r="L9">
-        <v>273.839553486025</v>
+        <v>39.77907353248274</v>
       </c>
       <c r="M9">
-        <v>1.528754093841935</v>
+        <v>0.07381190363925222</v>
       </c>
       <c r="N9">
-        <v>11206.08964591998</v>
+        <v>12608.77773747638</v>
       </c>
       <c r="O9">
-        <v>2068.845412631231</v>
+        <v>6557.855470050718</v>
       </c>
       <c r="P9">
-        <v>40206.18032894313</v>
+        <v>30541.56420773722</v>
       </c>
       <c r="Q9">
-        <v>8289.374871825599</v>
+        <v>29982.87286319684</v>
       </c>
       <c r="R9">
-        <v>1.991993899251401</v>
+        <v>0.07336821161923986</v>
       </c>
       <c r="S9">
-        <v>3297.38059493552</v>
+        <v>1774.177425935129</v>
       </c>
       <c r="T9">
-        <v>63.7018384588369</v>
+        <v>0.386503496426</v>
       </c>
       <c r="U9">
-        <v>8321.119246043985</v>
+        <v>27577.43374144641</v>
       </c>
       <c r="V9">
-        <v>31.07730859304829</v>
+        <v>0.2507569753222116</v>
       </c>
       <c r="W9">
-        <v>0.03243619131705189</v>
+        <v>0.01040151125459107</v>
       </c>
       <c r="X9">
-        <v>892.562485070746</v>
+        <v>696.2395251507488</v>
       </c>
       <c r="Y9">
-        <v>1614.668475735357</v>
+        <v>73.75516274512059</v>
       </c>
       <c r="Z9">
-        <v>25.89237000662052</v>
+        <v>0.06404947079390244</v>
       </c>
       <c r="AA9">
-        <v>0.1478846453446253</v>
+        <v>0.101638245202165</v>
       </c>
       <c r="AB9">
-        <v>61.22870643097825</v>
+        <v>36.83334320273946</v>
       </c>
       <c r="AC9">
-        <v>393.6882654854785</v>
+        <v>410.7113212078366</v>
       </c>
       <c r="AD9">
-        <v>0.2688476375326516</v>
+        <v>0.8559034444431445</v>
       </c>
       <c r="AE9">
-        <v>6739.695561093859</v>
+        <v>6811.30109128451</v>
       </c>
       <c r="AF9">
-        <v>3030.907860011757</v>
+        <v>5054.480034891938</v>
       </c>
       <c r="AG9">
-        <v>7847.613100590434</v>
+        <v>11680.34478217173</v>
       </c>
       <c r="AH9">
-        <v>53.39424707914572</v>
+        <v>184.0216904495862</v>
       </c>
       <c r="AI9">
-        <v>4603.580936604051</v>
+        <v>166352.0121285859</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1489,106 +1489,106 @@
         <v>43</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="C10">
-        <v>0.9739899905113397</v>
+        <v>0.03751185440075841</v>
       </c>
       <c r="D10">
-        <v>0.9714285714285714</v>
+        <v>0.7738095238095238</v>
       </c>
       <c r="E10">
-        <v>0.7113214739575477</v>
+        <v>0.2636685947519437</v>
       </c>
       <c r="F10">
-        <v>0.7333333333333333</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="H10">
-        <v>0.9844559585492227</v>
+        <v>0.9792746113989638</v>
       </c>
       <c r="I10">
-        <v>37.02102120422777</v>
+        <v>584.9939335794871</v>
       </c>
       <c r="J10">
-        <v>66.18450598416055</v>
+        <v>724.4535084117379</v>
       </c>
       <c r="K10">
-        <v>17.05657711929942</v>
+        <v>211.4571712510546</v>
       </c>
       <c r="L10">
-        <v>1.494934763415977</v>
+        <v>273.839553486025</v>
       </c>
       <c r="M10">
-        <v>0.07373219257548849</v>
+        <v>1.528754093841935</v>
       </c>
       <c r="N10">
-        <v>298.682876547718</v>
+        <v>11206.08964591998</v>
       </c>
       <c r="O10">
-        <v>617.0457662625157</v>
+        <v>2068.845412631231</v>
       </c>
       <c r="P10">
-        <v>2341.397234698376</v>
+        <v>40206.18032894313</v>
       </c>
       <c r="Q10">
-        <v>21.51189439004498</v>
+        <v>8289.374871825599</v>
       </c>
       <c r="R10">
-        <v>0.02430038698298098</v>
+        <v>1.991993899251401</v>
       </c>
       <c r="S10">
-        <v>458.551435813683</v>
+        <v>3297.38059493552</v>
       </c>
       <c r="T10">
-        <v>33.09784425654357</v>
+        <v>63.7018384588369</v>
       </c>
       <c r="U10">
-        <v>170.6676771360175</v>
+        <v>8321.119246043985</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>31.07730859304829</v>
       </c>
       <c r="W10">
-        <v>0.002331256560598703</v>
+        <v>0.03243619131705189</v>
       </c>
       <c r="X10">
-        <v>88.15299833061448</v>
+        <v>892.562485070746</v>
       </c>
       <c r="Y10">
-        <v>1754.84338786436</v>
+        <v>1614.668475735357</v>
       </c>
       <c r="Z10">
-        <v>5.077720142309438E-06</v>
+        <v>25.89237000662052</v>
       </c>
       <c r="AA10">
-        <v>0.08967281253595884</v>
+        <v>0.1478846453446253</v>
       </c>
       <c r="AB10">
-        <v>35.64534428258619</v>
+        <v>61.22870643097825</v>
       </c>
       <c r="AC10">
-        <v>219.8657312977705</v>
+        <v>393.6882654854785</v>
       </c>
       <c r="AD10">
-        <v>0.02383906454972666</v>
+        <v>0.2688476375326516</v>
       </c>
       <c r="AE10">
-        <v>9.122307452846828</v>
+        <v>6739.695561093859</v>
       </c>
       <c r="AF10">
-        <v>1570.641474036553</v>
+        <v>3030.907860011757</v>
       </c>
       <c r="AG10">
-        <v>4.707230343198907</v>
+        <v>7847.613100590434</v>
       </c>
       <c r="AH10">
-        <v>14.71479203716176</v>
+        <v>53.39424707914572</v>
       </c>
       <c r="AI10">
-        <v>115.9771838218306</v>
+        <v>4603.580936604051</v>
       </c>
     </row>
     <row r="11" spans="1:35">

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK14"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,182 +441,182 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Average(字串)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Average(數值)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>事故日期</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>事發經過</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>事故車出廠日期</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>傷勢</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>職業</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>折舊方法</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>被告肇責</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>塗裝</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>工資</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>烤漆</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>鈑金</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>耐用年數</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>修車費用</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>醫療費用</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>賠償金額總額</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>保險給付金額</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>居家看護天數</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>居家看護費用</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>每日居家看護金額</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>精神賠償</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>每日住院看護金額</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>住院看護天數</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>住院看護費用</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>看護總額</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>每日營業收入</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>營業損失天數</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>營業損失</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>每日工作收入</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>工作損失天數</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>工作損失</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>零件</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>材料</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>交通費用</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>財產損失</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Average(字串)</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Average(數值)</t>
         </is>
       </c>
     </row>
@@ -627,112 +627,112 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.9106470468257164</v>
+      </c>
+      <c r="C2" t="n">
+        <v>324.3451769682952</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>0.9739899905113397</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>0.9714285714285714</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>0.7113214739575477</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.7333333333333333</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>0.9844559585492227</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>37.02102120422777</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>66.18450598416055</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>17.05657711929942</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>1.494934763415977</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.07373219257548849</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>298.682876547718</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>617.0457662625157</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>2341.397234698376</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>21.51189439004498</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>0.02430038698298098</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>458.551435813683</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>33.09784425654357</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>170.6676771360175</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>0.002331256560598703</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>88.15299833061448</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AA2" t="n">
         <v>1754.84338786436</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
         <v>5.077720142309438e-06</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AC2" t="n">
         <v>0.08967281253595884</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AD2" t="n">
         <v>35.64534428258619</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AE2" t="n">
         <v>219.8657312977705</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AF2" t="n">
         <v>0.02383906454972666</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
         <v>9.122307452846828</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AH2" t="n">
         <v>1570.641474036553</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AI2" t="n">
         <v>4.707230343198907</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AJ2" t="n">
         <v>14.71479203716176</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AK2" t="n">
         <v>115.9771838218306</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.9106470468257164</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>324.3451769682952</v>
       </c>
     </row>
     <row r="3">
@@ -742,112 +742,112 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.7652988230397197</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12950.02038969638</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>0.6741516658365916</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.9351851851851852</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>0.2571668525068772</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>0.9320388349514563</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>0.9585492227979274</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>434.5572378028536</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>1462.447379406776</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>127.3954318843909</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>41.28905779226052</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.06694660443014412</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>13040.27220937202</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>6428.26466494816</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>25626.39073023328</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>106464.9143943003</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>0.07336821161923986</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>1774.177425935129</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>0.3958298653384151</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>29743.5609759386</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>6.058043974587382</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>0.01043518953396069</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>667.9114759203879</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AA3" t="n">
         <v>282.9800902221477</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
         <v>0.06404947079390244</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
         <v>0.1136036778683711</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AD3" t="n">
         <v>59.67513058506894</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AE3" t="n">
         <v>4052.167535191161</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AF3" t="n">
         <v>0.7098688105275432</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
         <v>7484.005140046813</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AH3" t="n">
         <v>6388.128502505137</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
         <v>12701.89421329685</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AJ3" t="n">
         <v>183.9787728728856</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AK3" t="n">
         <v>13695.3229006375</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.7652988230397197</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>12950.02038969638</v>
       </c>
     </row>
     <row r="4">
@@ -857,112 +857,112 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.7590663801102633</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6948.745181070465</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.9807692307692307</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>0.6587172464357003</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>0.9444444444444444</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>0.2479075932476179</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.6</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>0.9230769230769231</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.9585492227979274</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>446.7728546102408</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>1253.565216211023</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>179.0436404838594</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>39.77907353248274</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.07381190363925222</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>12608.77773747638</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>6557.855470050718</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>30541.56420773722</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>29982.87286319684</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>0.07336821161923986</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>1774.177425935129</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>0.386503496426</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>27577.43374144641</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>0.2507569753222116</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>0.01040151125459107</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>696.2395251507488</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AA4" t="n">
         <v>73.75516274512059</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>0.06404947079390244</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AC4" t="n">
         <v>0.101638245202165</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AD4" t="n">
         <v>36.83334320273946</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AE4" t="n">
         <v>410.7113212078366</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AF4" t="n">
         <v>0.8559034444431445</v>
       </c>
-      <c r="AE4" t="n">
-        <v>6811.30109128451</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
+        <v>6811.301091284508</v>
+      </c>
+      <c r="AH4" t="n">
         <v>5054.480034891938</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AI4" t="n">
         <v>11680.34478217173</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AJ4" t="n">
         <v>184.0216904495862</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AK4" t="n">
         <v>166352.0121285859</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.7590663801102633</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>6948.745181070465</v>
       </c>
     </row>
     <row r="5">
@@ -972,112 +972,112 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.8042857271146556</v>
+      </c>
+      <c r="C5" t="n">
+        <v>24928.45335027388</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.7600828065966183</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.9345794392523364</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>0.2966208282307332</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.7222222222222222</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>0.9320388349514563</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>0.9844559585492227</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>436.4040674637876</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>1378.652131982468</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>253.2821070191641</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>28.08018763907472</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.08926213924019215</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>13459.45771436664</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>6235.33115417501</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>253051.0033401096</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>22416.7150335599</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>0.04521462212869561</v>
       </c>
-      <c r="S5" t="n">
-        <v>1882.146843636079</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
+        <v>1882.146843636078</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.2331465734979018</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>37301.39294268027</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>0.3543770106013464</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>0.0227482744723457</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>462.7374725908535</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AA5" t="n">
         <v>505.6104555575493</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AB5" t="n">
         <v>0.006844425820848017</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AC5" t="n">
         <v>0.123953780012213</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AD5" t="n">
         <v>39.41971046784125</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AE5" t="n">
         <v>364.1650606960645</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AF5" t="n">
         <v>1.25886830285055</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AG5" t="n">
         <v>8055.709045054989</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AH5" t="n">
         <v>3573.093193670457</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AI5" t="n">
         <v>9840.354793369663</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AJ5" t="n">
         <v>185.021253435275</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AK5" t="n">
         <v>5727.331000956837</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0.8042857271146556</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>24928.45335027388</v>
       </c>
     </row>
     <row r="6">
@@ -1087,1032 +1087,1112 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.9499306079738126</v>
+      </c>
+      <c r="C6" t="n">
+        <v>67.50238390296867</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>0.9775878745962736</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>0.9814814814814815</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>0.7615444967452656</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>0.9444444444444444</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.9844559585492227</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>37.02102120422777</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>100.8007869304008</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>12.21561680738723</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.644143238154796</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>41.44567452909261</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>4.674094080319696</v>
       </c>
-      <c r="P6" t="n">
-        <v>403.8539686040718</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>18.6609096947919</v>
-      </c>
       <c r="R6" t="n">
+        <v>403.8539686040717</v>
+      </c>
+      <c r="S6" t="n">
+        <v>18.66090969479179</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.01045136611173872</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>189.6221491388754</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>0.07979124219054788</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>88.15299833061448</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>0.1036200352791347</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>0.002331256560598703</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>88.15299833061448</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AA6" t="n">
         <v>141.992966682448</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.60895888081132</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
+        <v>57.60895888081132</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>52.6185761959027</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
         <v>792.5523172974397</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
         <v>0</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AJ6" t="n">
         <v>1.753054722368853</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
         <v>237.3915200831202</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.9499306079738126</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>67.50238390296869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>data/eval\gpt-4o-mini-advanced\processed_generate-original.jsonl</t>
+          <t>data/eval\gpt-3.5-turbo-0125-advanced\processed_generate-original.jsonl</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9867549668874173</v>
+        <v>0.7330215308933031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.606596395282168</v>
+        <v>4570.732981287303</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8224299065420561</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2726081025317549</v>
+        <v>0.5110856460453388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.8395061728395061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8252427184466019</v>
+        <v>0.2475253435771447</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9896373056994818</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="I7" t="n">
-        <v>574.5513206318536</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="J7" t="n">
-        <v>3807.540022445687</v>
+        <v>0.9792746113989638</v>
       </c>
       <c r="K7" t="n">
-        <v>160.5690690930703</v>
+        <v>2318.507851307576</v>
       </c>
       <c r="L7" t="n">
-        <v>49.42003344146024</v>
+        <v>2814.271696868393</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2761873363882851</v>
+        <v>2259.793480099374</v>
       </c>
       <c r="N7" t="n">
-        <v>12434.65766114816</v>
+        <v>3710.812932351406</v>
       </c>
       <c r="O7" t="n">
-        <v>6364.417649986819</v>
+        <v>1.110263043027771</v>
       </c>
       <c r="P7" t="n">
-        <v>34566.81822327304</v>
+        <v>7619.157422895378</v>
       </c>
       <c r="Q7" t="n">
-        <v>31389.22928266446</v>
+        <v>843.502859446746</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04681329191990109</v>
+        <v>26406.30728967505</v>
       </c>
       <c r="S7" t="n">
-        <v>1398.536926746788</v>
+        <v>7622.098996508928</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4820962702961493</v>
+        <v>0.0526765298716596</v>
       </c>
       <c r="U7" t="n">
-        <v>17073.78627095837</v>
+        <v>1252.709608951803</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6869955688207215</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.1082578922486002</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2520.610101357874</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>964.8348680441648</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.08995577477782554</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.101638245202165</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>36.83334320273946</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>915.1225286147899</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.4327423155194247</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>3622.574587846608</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>4984.420148022309</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>14237.634844387</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>220.6800966138238</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10078.85811089251</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.7351609340352319</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>7562.212107194162</v>
-      </c>
+        <v>0.4706977701006648</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>data/eval\gpt-4o-mini-basic\processed_generate-original.jsonl</t>
+          <t>data/eval\gpt-3.5-turbo-0125-basic\processed_generate-original.jsonl</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9692307692307692</v>
+        <v>0.6363112439496769</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03751185440075841</v>
+        <v>12052.26834406264</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7738095238095238</v>
+        <v>0.9682539682539683</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2636685947519437</v>
+        <v>0.1564405945890189</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8103448275862069</v>
+        <v>0.2143146901297511</v>
       </c>
       <c r="H8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.9792746113989638</v>
       </c>
-      <c r="I8" t="n">
-        <v>584.9939335794871</v>
-      </c>
-      <c r="J8" t="n">
-        <v>724.4535084117379</v>
-      </c>
       <c r="K8" t="n">
-        <v>211.4571712510546</v>
+        <v>5027.250699506399</v>
       </c>
       <c r="L8" t="n">
-        <v>273.839553486025</v>
+        <v>1939.451081742952</v>
       </c>
       <c r="M8" t="n">
-        <v>1.528754093841935</v>
+        <v>3033.613481237152</v>
       </c>
       <c r="N8" t="n">
-        <v>11206.08964591998</v>
+        <v>3341.676630110596</v>
       </c>
       <c r="O8" t="n">
-        <v>2068.845412631231</v>
+        <v>1.451781653323836</v>
       </c>
       <c r="P8" t="n">
-        <v>40206.18032894313</v>
+        <v>4980.375852660461</v>
       </c>
       <c r="Q8" t="n">
-        <v>8289.374871825599</v>
+        <v>5007.568872831011</v>
       </c>
       <c r="R8" t="n">
-        <v>1.991993899251401</v>
+        <v>28660.80047481584</v>
       </c>
       <c r="S8" t="n">
-        <v>3297.38059493552</v>
+        <v>91294.46004183659</v>
       </c>
       <c r="T8" t="n">
-        <v>63.7018384588369</v>
+        <v>0.0491445484804998</v>
       </c>
       <c r="U8" t="n">
-        <v>8321.119246043985</v>
+        <v>1340.014065234644</v>
       </c>
       <c r="V8" t="n">
-        <v>31.07730859304829</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.03243619131705189</v>
-      </c>
-      <c r="X8" t="n">
-        <v>892.562485070746</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1614.668475735357</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>25.89237000662052</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.1478846453446253</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>61.22870643097825</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>393.6882654854785</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.2688476375326516</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>6739.695561093859</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>3030.907860011757</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>7847.613100590434</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>53.39424707914572</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>4603.580936604051</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0.6270565338191031</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>5577.486467286307</v>
-      </c>
+        <v>0.5080025742800723</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>data/eval\gpt-4o-mini-oneShot\processed_generate-original.jsonl</t>
+          <t>data/eval\gpt-4o-mini-advanced\processed_generate-original.jsonl</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9857142857142858</v>
+        <v>0.8228821305367708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3869131167016205</v>
+        <v>9639.971665183324</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2696332499932761</v>
+        <v>0.8049906374005946</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.6775793650793651</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9844559585492227</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
-        <v>566.9022061522351</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="J9" t="n">
-        <v>1650.812370033635</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="K9" t="n">
-        <v>185.6652554474654</v>
+        <v>315.0844155798063</v>
       </c>
       <c r="L9" t="n">
-        <v>53.44097997512429</v>
+        <v>8889.579076618713</v>
       </c>
       <c r="M9" t="n">
-        <v>1.434312110080881</v>
+        <v>137.4273727432627</v>
       </c>
       <c r="N9" t="n">
-        <v>15790.74708470761</v>
+        <v>3810.715006897554</v>
       </c>
       <c r="O9" t="n">
-        <v>4565.151569590509</v>
+        <v>0.1832722646101818</v>
       </c>
       <c r="P9" t="n">
-        <v>35961.1652338032</v>
+        <v>7970.542110821792</v>
       </c>
       <c r="Q9" t="n">
-        <v>15563.39290816062</v>
+        <v>5939.120258174786</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04681329191990109</v>
+        <v>62986.24609628484</v>
       </c>
       <c r="S9" t="n">
-        <v>1365.66290269483</v>
+        <v>25630.76237281452</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4124098004099231</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20579.51865662078</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>31.07730859304829</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.04454093928985342</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1503.396930194064</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1120.854560049039</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>25.89237000662052</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.101638245202165</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>59.78192908836191</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>401.9248934119022</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.2009787292613955</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17217.48645523432</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>5161.21624593398</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>14365.15615850061</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>145.1312405553705</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>5422.869512364467</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.729998200743544</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>6308.736170480636</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>data/eval\meta-chinese-format-advanced\processed_generate-checkpoint-600.jsonl</t>
+          <t>data/eval\gpt-4o-mini-basic\processed_generate-original.jsonl</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7806451612903226</v>
+        <v>0.7254728873262086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5963241056825951</v>
+        <v>6603.830644925843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8584905660377359</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4082970132323891</v>
+        <v>0.4187071158804985</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.6520273378272038</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9844559585492227</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
-        <v>566.6921101028045</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="J10" t="n">
-        <v>2261.33775843964</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>255.620016712235</v>
+        <v>715.3480964455201</v>
       </c>
       <c r="L10" t="n">
-        <v>27.35435567379519</v>
+        <v>453.7768687607556</v>
       </c>
       <c r="M10" t="n">
-        <v>0.277882377974413</v>
+        <v>36.13271478519419</v>
       </c>
       <c r="N10" t="n">
-        <v>10982.70616562661</v>
+        <v>3726.104642910697</v>
       </c>
       <c r="O10" t="n">
-        <v>2429.407273070654</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>30579.67118907514</v>
+        <v>8812.746999007466</v>
       </c>
       <c r="Q10" t="n">
-        <v>16164.21442342856</v>
+        <v>5812.064180404461</v>
       </c>
       <c r="R10" t="n">
-        <v>1.991993899251401</v>
+        <v>33516.07548798525</v>
       </c>
       <c r="S10" t="n">
-        <v>3297.38059493552</v>
+        <v>26100.41965665072</v>
       </c>
       <c r="T10" t="n">
-        <v>63.7018384588369</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>10414.31375231952</v>
+        <v>73.29909216004812</v>
       </c>
       <c r="V10" t="n">
-        <v>21.82847065839226</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.05979674563833264</v>
-      </c>
-      <c r="X10" t="n">
-        <v>4156.975248560701</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>4012.373743650776</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.06404947079390244</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.123953780012213</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>59.78192908836191</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>397.4727048921188</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.210455155482066</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>5490.853741127895</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>6321.157778703541</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>5565.245643505668</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1159.376311014817</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>10511.45274726943</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0.7127605594147681</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>5552.529633483417</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>data/eval\meta-chinese-format-advanced\processed_generate-original.jsonl</t>
+          <t>data/eval\gpt-4o-mini-oneShot\processed_generate-original.jsonl</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.7985276454581088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4847566821716522</v>
+        <v>5679.135599581055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8783783783783784</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2590979782933724</v>
+        <v>0.7362000462637971</v>
       </c>
       <c r="F11" t="n">
-        <v>0.75</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.6692390169767494</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9844559585492227</v>
+        <v>0.5</v>
       </c>
       <c r="I11" t="n">
-        <v>172.403123217799</v>
+        <v>0.8048684900539339</v>
       </c>
       <c r="J11" t="n">
-        <v>1840.280742867435</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>306.6665782364338</v>
+        <v>797.0599244902422</v>
       </c>
       <c r="L11" t="n">
-        <v>28.24834412976112</v>
+        <v>1002.680587627242</v>
       </c>
       <c r="M11" t="n">
-        <v>0.8405975659969435</v>
+        <v>268.7655199778333</v>
       </c>
       <c r="N11" t="n">
-        <v>10915.38675384802</v>
+        <v>9.906338741620283</v>
       </c>
       <c r="O11" t="n">
-        <v>3331.16804186463</v>
+        <v>0.1620018392372813</v>
       </c>
       <c r="P11" t="n">
-        <v>34991.32675873873</v>
+        <v>9908.572644352029</v>
       </c>
       <c r="Q11" t="n">
-        <v>14299.39865850673</v>
+        <v>10165.18325292964</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0478388233404102</v>
+        <v>40851.58430613772</v>
       </c>
       <c r="S11" t="n">
-        <v>1456.833980187045</v>
+        <v>5145.712618877079</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5080025742800723</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>5289.887553989578</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3108601058374041</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.07665661444064811</v>
-      </c>
-      <c r="X11" t="n">
-        <v>2113.581062859599</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>718.9783223415999</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11.11241757874931</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.1204689770774792</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>60.40998356180931</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1744.433403323337</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.5575671682573679</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>4216.471717021682</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8408.875012253733</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>3224.571864371669</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2760.210974292431</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9115.523104930644</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0.6307174758179942</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>5611.925785046685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>data/eval\meta-llama-format-instruct-advanced\processed_generate-checkpoint-600.jsonl</t>
+          <t>data/eval\meta-chinese-format-advanced\processed_generate-checkpoint-600.jsonl</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9389312977099237</v>
+        <v>0.7127605594147681</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6265060039039756</v>
+        <v>5552.529633483417</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9204545454545454</v>
+        <v>0.7806451612903226</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2820171128958512</v>
+        <v>0.5963241056825951</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9848484848484849</v>
+        <v>0.4082970132323891</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9740932642487047</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I12" t="n">
-        <v>439.1230502552157</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="J12" t="n">
-        <v>1178.266179808862</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="K12" t="n">
-        <v>242.8089766449855</v>
+        <v>566.6921101028045</v>
       </c>
       <c r="L12" t="n">
-        <v>47.98040645994601</v>
+        <v>2261.33775843964</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2040704743351608</v>
+        <v>255.620016712235</v>
       </c>
       <c r="N12" t="n">
-        <v>14428.73218493148</v>
+        <v>27.35435567379519</v>
       </c>
       <c r="O12" t="n">
-        <v>726.007278802468</v>
+        <v>0.277882377974413</v>
       </c>
       <c r="P12" t="n">
-        <v>20773.55607181341</v>
+        <v>10982.70616562661</v>
       </c>
       <c r="Q12" t="n">
-        <v>13822.20592005453</v>
+        <v>2429.407273070654</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0491445484804998</v>
+        <v>30579.67118907514</v>
       </c>
       <c r="S12" t="n">
-        <v>1413.318115262746</v>
+        <v>16164.21442342856</v>
       </c>
       <c r="T12" t="n">
-        <v>0.611622609559207</v>
+        <v>1.991993899251401</v>
       </c>
       <c r="U12" t="n">
-        <v>10274.81427120904</v>
+        <v>3297.38059493552</v>
       </c>
       <c r="V12" t="n">
-        <v>3.381861162433613</v>
+        <v>63.7018384588369</v>
       </c>
       <c r="W12" t="n">
-        <v>0.08175770582435495</v>
+        <v>10414.31375231952</v>
       </c>
       <c r="X12" t="n">
-        <v>2956.347261686765</v>
+        <v>21.82847065839226</v>
       </c>
       <c r="Y12" t="n">
-        <v>465.2070494830216</v>
+        <v>0.05979674563833264</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.89237000662052</v>
+        <v>4156.975248560701</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1427845118875273</v>
+        <v>4012.373743650776</v>
       </c>
       <c r="AB12" t="n">
-        <v>1214.214519568973</v>
+        <v>0.06404947079390244</v>
       </c>
       <c r="AC12" t="n">
-        <v>358.3566609159889</v>
+        <v>0.123953780012213</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0981668957969048</v>
+        <v>59.78192908836191</v>
       </c>
       <c r="AE12" t="n">
-        <v>2853.888783417534</v>
+        <v>397.4727048921189</v>
       </c>
       <c r="AF12" t="n">
-        <v>6204.971516098207</v>
+        <v>0.210455155482066</v>
       </c>
       <c r="AG12" t="n">
-        <v>16126.00387758383</v>
+        <v>5490.853741127895</v>
       </c>
       <c r="AH12" t="n">
-        <v>491.8357839556213</v>
+        <v>6321.157778703541</v>
       </c>
       <c r="AI12" t="n">
-        <v>16218.12021421546</v>
+        <v>5565.245643505668</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.7585977203421169</v>
+        <v>1159.376311014817</v>
       </c>
       <c r="AK12" t="n">
-        <v>4422.738585138834</v>
+        <v>10511.45274726943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>data/eval\meta-llama-format-instruct-advanced\processed_generate-original.jsonl</t>
+          <t>data/eval\meta-chinese-format-advanced\processed_generate-original.jsonl</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1014492753623188</v>
+        <v>0.6307174758179942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5484692688876133</v>
+        <v>5611.925785046685</v>
       </c>
       <c r="D13" t="n">
-        <v>0.48</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3458308320724666</v>
+        <v>0.4847566821716522</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.2590979782933724</v>
       </c>
       <c r="H13" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.9844559585492227</v>
       </c>
-      <c r="I13" t="n">
-        <v>235.0196787957344</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1722.231116416934</v>
-      </c>
       <c r="K13" t="n">
-        <v>312.6067562119705</v>
+        <v>172.403123217799</v>
       </c>
       <c r="L13" t="n">
-        <v>27.11608304094456</v>
+        <v>1840.280742867434</v>
       </c>
       <c r="M13" t="n">
-        <v>1.048232554330602</v>
+        <v>306.6665782364338</v>
       </c>
       <c r="N13" t="n">
-        <v>9256.674498971523</v>
+        <v>28.24834412976112</v>
       </c>
       <c r="O13" t="n">
-        <v>2264.699512803724</v>
+        <v>0.8405975659969435</v>
       </c>
       <c r="P13" t="n">
-        <v>30864.16378453115</v>
+        <v>10915.38675384802</v>
       </c>
       <c r="Q13" t="n">
-        <v>10841.04412846</v>
+        <v>3331.16804186463</v>
       </c>
       <c r="R13" t="n">
-        <v>1.986812552101142</v>
+        <v>34991.32675873873</v>
       </c>
       <c r="S13" t="n">
-        <v>1996.167576657228</v>
+        <v>14299.39865850673</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5374772645281498</v>
+        <v>0.0478388233404102</v>
       </c>
       <c r="U13" t="n">
-        <v>7209.663734861214</v>
+        <v>1456.833980187045</v>
       </c>
       <c r="V13" t="n">
-        <v>33.82702661976779</v>
+        <v>0.5080025742800723</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04051272953420422</v>
+        <v>5289.887553989578</v>
       </c>
       <c r="X13" t="n">
-        <v>3774.229417648638</v>
+        <v>0.3108601058374041</v>
       </c>
       <c r="Y13" t="n">
-        <v>3951.271745293564</v>
+        <v>0.07665661444064811</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.89237000662052</v>
+        <v>2113.581062859598</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.118853646555115</v>
+        <v>718.9783223415999</v>
       </c>
       <c r="AB13" t="n">
-        <v>36.39636302958846</v>
+        <v>11.11241757874931</v>
       </c>
       <c r="AC13" t="n">
-        <v>1784.335141107944</v>
+        <v>0.1204689770774792</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.6788236552204792</v>
+        <v>60.40998356180931</v>
       </c>
       <c r="AE13" t="n">
-        <v>11642.93041446455</v>
+        <v>1744.433403323337</v>
       </c>
       <c r="AF13" t="n">
-        <v>9584.807203854027</v>
+        <v>0.5575671682573679</v>
       </c>
       <c r="AG13" t="n">
-        <v>1672.921485878485</v>
+        <v>4216.471717021682</v>
       </c>
       <c r="AH13" t="n">
-        <v>8776.643877394272</v>
+        <v>8408.875012253735</v>
       </c>
       <c r="AI13" t="n">
-        <v>12148.52437719335</v>
+        <v>3224.571864371669</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.6016321210095347</v>
+        <v>2760.210974292431</v>
       </c>
       <c r="AK13" t="n">
-        <v>4793.607971521681</v>
+        <v>9115.523104930644</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>data/eval\meta-llama-format-instruct-advanced\processed_generate-checkpoint-600.jsonl</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7585977203421169</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4422.738585138834</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9389312977099237</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6265060039039756</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9204545454545454</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2820171128958512</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9848484848484849</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9740932642487047</v>
+      </c>
+      <c r="K14" t="n">
+        <v>439.1230502552157</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1178.266179808862</v>
+      </c>
+      <c r="M14" t="n">
+        <v>242.8089766449855</v>
+      </c>
+      <c r="N14" t="n">
+        <v>47.98040645994601</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.2040704743351608</v>
+      </c>
+      <c r="P14" t="n">
+        <v>14428.73218493148</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>726.007278802468</v>
+      </c>
+      <c r="R14" t="n">
+        <v>20773.55607181341</v>
+      </c>
+      <c r="S14" t="n">
+        <v>13822.20592005453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0491445484804998</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1413.318115262746</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.611622609559207</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10274.81427120904</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.381861162433613</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.08175770582435495</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2956.347261686765</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>465.2070494830216</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>25.89237000662052</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1427845118875273</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1214.214519568973</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>358.356660915989</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.0981668957969048</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2853.888783417534</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6204.971516098207</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>16126.00387758384</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>491.8357839556213</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16218.12021421546</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>data/eval\meta-llama-format-instruct-advanced\processed_generate-original.jsonl</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6016321210095347</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4793.607971521681</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1014492753623188</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5484692688876133</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3458308320724666</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9512195121951219</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9844559585492227</v>
+      </c>
+      <c r="K15" t="n">
+        <v>235.0196787957344</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1722.231116416934</v>
+      </c>
+      <c r="M15" t="n">
+        <v>312.6067562119705</v>
+      </c>
+      <c r="N15" t="n">
+        <v>27.11608304094456</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.048232554330602</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9256.674498971523</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2264.699512803725</v>
+      </c>
+      <c r="R15" t="n">
+        <v>30864.16378453115</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10841.04412846</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.986812552101142</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1996.167576657228</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.5374772645281498</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7209.663734861214</v>
+      </c>
+      <c r="X15" t="n">
+        <v>33.82702661976779</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.04051272953420422</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>3774.229417648638</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>3951.271745293564</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>25.89237000662052</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.118853646555115</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>36.39636302958846</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1784.335141107944</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.6788236552204792</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>11642.93041446455</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9584.807203854027</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1672.921485878485</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8776.643877394272</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>12148.52437719335</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>data/eval\re-format\processed_generate-original.jsonl</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B16" t="n">
+        <v>0.7597492124482385</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8210.550692858069</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.8636363636363636</v>
       </c>
-      <c r="C14" t="n">
+      <c r="E16" t="n">
         <v>0.6703840391388737</v>
       </c>
-      <c r="D14" t="n">
+      <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G16" t="n">
         <v>0.7997681258132094</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J16" t="n">
         <v>0.9844559585492227</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K16" t="n">
         <v>1098.806643698618</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L16" t="n">
         <v>1608.334409971814</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M16" t="n">
         <v>362.6773198053953</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N16" t="n">
         <v>79.76197331119656</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O16" t="n">
         <v>2.057188314388211</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P16" t="n">
         <v>12739.32607415921</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q16" t="n">
         <v>6319.015590488922</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R16" t="n">
         <v>65867.94043293898</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S16" t="n">
         <v>8382.112343180483</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T16" t="n">
         <v>1.991993899251401</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U16" t="n">
         <v>2000.882506069727</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V16" t="n">
         <v>63.7018384588369</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W16" t="n">
         <v>29351.67087851042</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X16" t="n">
         <v>31.07730859304829</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y16" t="n">
         <v>0.305288102887147</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z16" t="n">
         <v>159.5451119006754</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AA16" t="n">
         <v>2892.20283922143</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AB16" t="n">
         <v>25.89237000662052</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AC16" t="n">
         <v>0.1054057198809072</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AD16" t="n">
         <v>432.5069487923142</v>
       </c>
-      <c r="AC14" t="n">
-        <v>522.387166752638</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AE16" t="n">
+        <v>522.3871667526381</v>
+      </c>
+      <c r="AF16" t="n">
         <v>0.2659798284936385</v>
       </c>
-      <c r="AE14" t="n">
-        <v>4172.396753520147</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AG16" t="n">
+        <v>4172.396753520146</v>
+      </c>
+      <c r="AH16" t="n">
         <v>18959.45533544857</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AI16" t="n">
         <v>1981.71979563968</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AJ16" t="n">
         <v>37.35475494120223</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AK16" t="n">
         <v>4641.966087163501</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0.7597492124482385</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>8210.550692858069</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>修車費用</t>
   </si>
   <si>
-    <t>醫療費用</t>
-  </si>
-  <si>
     <t>賠償金額總額</t>
   </si>
   <si>
@@ -82,52 +79,7 @@
     <t>每日居家看護金額</t>
   </si>
   <si>
-    <t>精神賠償</t>
-  </si>
-  <si>
-    <t>每日住院看護金額</t>
-  </si>
-  <si>
-    <t>住院看護天數</t>
-  </si>
-  <si>
-    <t>住院看護費用</t>
-  </si>
-  <si>
-    <t>看護總額</t>
-  </si>
-  <si>
-    <t>每日營業收入</t>
-  </si>
-  <si>
-    <t>營業損失天數</t>
-  </si>
-  <si>
-    <t>營業損失</t>
-  </si>
-  <si>
-    <t>每日工作收入</t>
-  </si>
-  <si>
-    <t>工作損失天數</t>
-  </si>
-  <si>
-    <t>工作損失</t>
-  </si>
-  <si>
-    <t>零件</t>
-  </si>
-  <si>
-    <t>材料</t>
-  </si>
-  <si>
-    <t>交通費用</t>
-  </si>
-  <si>
-    <t>財產損失</t>
-  </si>
-  <si>
-    <t>ft-gpt-4o-mini-2024-07-18/processed_generate-original.jsonl</t>
+    <t>ft-gpt-4o-mini-2024-07-18-advanced/processed_generate-original.jsonl</t>
   </si>
   <si>
     <t>gemini-1.5-flash-advanced/processed_generate-original.jsonl</t>
@@ -137,15 +89,6 @@
   </si>
   <si>
     <t>gemini-1.5-flash-oneShot/processed_generate-original.jsonl</t>
-  </si>
-  <si>
-    <t>gpt-0125-finetuning-advanced/processed_generate.jsonl</t>
-  </si>
-  <si>
-    <t>gpt-3.5-turbo-0125-advanced/processed_generate-original.jsonl</t>
-  </si>
-  <si>
-    <t>gpt-3.5-turbo-0125-basic/processed_generate-original.jsonl</t>
   </si>
   <si>
     <t>gpt-4o-mini-advanced/processed_generate-original.jsonl</t>
@@ -527,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,64 +540,16 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
-      <c r="A2" t="s">
-        <v>37</v>
       </c>
       <c r="B2">
         <v>0.9106470468257164</v>
       </c>
       <c r="C2">
-        <v>324.3451769682952</v>
+        <v>88.84352398267261</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -696,304 +591,160 @@
         <v>298.682876547718</v>
       </c>
       <c r="Q2">
-        <v>617.0457662625157</v>
+        <v>42.65298506361818</v>
       </c>
       <c r="R2">
-        <v>2341.397234698376</v>
+        <v>21.51189439004498</v>
       </c>
       <c r="S2">
-        <v>21.51189439004498</v>
+        <v>0.9509564741117781</v>
       </c>
       <c r="T2">
-        <v>0.02430038698298098</v>
+        <v>458.551435813683</v>
       </c>
       <c r="U2">
-        <v>458.551435813683</v>
-      </c>
-      <c r="V2">
         <v>33.09784425654357</v>
       </c>
-      <c r="W2">
-        <v>170.6676771360175</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.002331256560598703</v>
-      </c>
-      <c r="Z2">
-        <v>88.15299833061448</v>
-      </c>
-      <c r="AA2">
-        <v>1754.84338786436</v>
-      </c>
-      <c r="AB2">
-        <v>5.077720142309438E-06</v>
-      </c>
-      <c r="AC2">
-        <v>0.08967281253595884</v>
-      </c>
-      <c r="AD2">
-        <v>35.64534428258619</v>
-      </c>
-      <c r="AE2">
-        <v>219.8657312977705</v>
-      </c>
-      <c r="AF2">
-        <v>0.02383906454972666</v>
-      </c>
-      <c r="AG2">
-        <v>9.122307452846828</v>
-      </c>
-      <c r="AH2">
-        <v>1570.641474036553</v>
-      </c>
-      <c r="AI2">
-        <v>4.707230343198907</v>
-      </c>
-      <c r="AJ2">
-        <v>14.71479203716176</v>
-      </c>
-      <c r="AK2">
-        <v>115.9771838218306</v>
-      </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0.7652988230397197</v>
+        <v>0.8174622091091611</v>
       </c>
       <c r="C3">
-        <v>12950.02038969638</v>
+        <v>6559.030636625042</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.6741516658365916</v>
+        <v>0.8230900628032887</v>
       </c>
       <c r="F3">
-        <v>0.9351851851851852</v>
+        <v>0.9381443298969072</v>
       </c>
       <c r="G3">
-        <v>0.2571668525068772</v>
+        <v>0.2847558968284347</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="I3">
-        <v>0.9320388349514563</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="J3">
-        <v>0.9585492227979274</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="K3">
-        <v>434.5572378028536</v>
+        <v>507.1953028430185</v>
       </c>
       <c r="L3">
-        <v>1462.447379406776</v>
+        <v>3171.733611250544</v>
       </c>
       <c r="M3">
-        <v>127.3954318843909</v>
+        <v>116.2281539047597</v>
       </c>
       <c r="N3">
-        <v>41.28905779226052</v>
+        <v>2945.040347761218</v>
       </c>
       <c r="O3">
-        <v>0.06694660443014412</v>
+        <v>0.2488513791849028</v>
       </c>
       <c r="P3">
-        <v>13040.27220937202</v>
+        <v>8553.595209496189</v>
       </c>
       <c r="Q3">
-        <v>6428.26466494816</v>
+        <v>2654.450396925055</v>
       </c>
       <c r="R3">
-        <v>25626.39073023328</v>
+        <v>52884.47793861916</v>
       </c>
       <c r="S3">
-        <v>106464.9143943003</v>
+        <v>1.636071092675621</v>
       </c>
       <c r="T3">
-        <v>0.07336821161923986</v>
+        <v>1273.758121014223</v>
       </c>
       <c r="U3">
-        <v>1774.177425935129</v>
-      </c>
-      <c r="V3">
-        <v>0.3958298653384151</v>
-      </c>
-      <c r="W3">
-        <v>29743.5609759386</v>
-      </c>
-      <c r="X3">
-        <v>6.058043974587382</v>
-      </c>
-      <c r="Y3">
-        <v>0.01043518953396069</v>
-      </c>
-      <c r="Z3">
-        <v>667.9114759203879</v>
-      </c>
-      <c r="AA3">
-        <v>282.9800902221477</v>
-      </c>
-      <c r="AB3">
-        <v>0.06404947079390244</v>
-      </c>
-      <c r="AC3">
-        <v>0.1136036778683711</v>
-      </c>
-      <c r="AD3">
-        <v>59.67513058506894</v>
-      </c>
-      <c r="AE3">
-        <v>4052.167535191161</v>
-      </c>
-      <c r="AF3">
-        <v>0.7098688105275432</v>
-      </c>
-      <c r="AG3">
-        <v>7484.005140046813</v>
-      </c>
-      <c r="AH3">
-        <v>6388.128502505137</v>
-      </c>
-      <c r="AI3">
-        <v>12701.89421329685</v>
-      </c>
-      <c r="AJ3">
-        <v>183.9787728728856</v>
-      </c>
-      <c r="AK3">
-        <v>13695.3229006375</v>
+        <v>40.97299858942281</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>0.7590663801102633</v>
+        <v>0.8000369901708206</v>
       </c>
       <c r="C4">
-        <v>6948.745181070465</v>
+        <v>6882.888177812845</v>
       </c>
       <c r="D4">
-        <v>0.9807692307692307</v>
+        <v>0.9928057553956835</v>
       </c>
       <c r="E4">
-        <v>0.6587172464357003</v>
+        <v>0.8246529454670721</v>
       </c>
       <c r="F4">
-        <v>0.9444444444444444</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="G4">
-        <v>0.2479075932476179</v>
+        <v>0.2930859054356452</v>
       </c>
       <c r="H4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>0.9230769230769231</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="J4">
-        <v>0.9585492227979274</v>
+        <v>0.9533678756476683</v>
       </c>
       <c r="K4">
-        <v>446.7728546102408</v>
+        <v>432.474537130341</v>
       </c>
       <c r="L4">
-        <v>1253.565216211023</v>
+        <v>7306.810903706583</v>
       </c>
       <c r="M4">
-        <v>179.0436404838594</v>
+        <v>160.6509041514181</v>
       </c>
       <c r="N4">
-        <v>39.77907353248274</v>
+        <v>304.6600060130494</v>
       </c>
       <c r="O4">
-        <v>0.07381190363925222</v>
+        <v>0.3380338073613312</v>
       </c>
       <c r="P4">
-        <v>12608.77773747638</v>
+        <v>12358.59038767009</v>
       </c>
       <c r="Q4">
-        <v>6557.855470050718</v>
+        <v>985.687969224856</v>
       </c>
       <c r="R4">
-        <v>30541.56420773722</v>
+        <v>52714.40599982435</v>
       </c>
       <c r="S4">
-        <v>29982.87286319684</v>
+        <v>1.44795268428474</v>
       </c>
       <c r="T4">
-        <v>0.07336821161923986</v>
+        <v>1411.089067217393</v>
       </c>
       <c r="U4">
-        <v>1774.177425935129</v>
-      </c>
-      <c r="V4">
-        <v>0.386503496426</v>
-      </c>
-      <c r="W4">
-        <v>27577.43374144641</v>
-      </c>
-      <c r="X4">
-        <v>0.2507569753222116</v>
-      </c>
-      <c r="Y4">
-        <v>0.01040151125459107</v>
-      </c>
-      <c r="Z4">
-        <v>696.2395251507488</v>
-      </c>
-      <c r="AA4">
-        <v>73.75516274512059</v>
-      </c>
-      <c r="AB4">
-        <v>0.06404947079390244</v>
-      </c>
-      <c r="AC4">
-        <v>0.101638245202165</v>
-      </c>
-      <c r="AD4">
-        <v>36.83334320273946</v>
-      </c>
-      <c r="AE4">
-        <v>410.7113212078366</v>
-      </c>
-      <c r="AF4">
-        <v>0.8559034444431445</v>
-      </c>
-      <c r="AG4">
-        <v>6811.301091284508</v>
-      </c>
-      <c r="AH4">
-        <v>5054.480034891938</v>
-      </c>
-      <c r="AI4">
-        <v>11680.34478217173</v>
-      </c>
-      <c r="AJ4">
-        <v>184.0216904495862</v>
-      </c>
-      <c r="AK4">
-        <v>166352.0121285859</v>
+        <v>35.6141945115499</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0.8042857271146556</v>
       </c>
       <c r="C5">
-        <v>24928.45335027388</v>
+        <v>18920.111850523</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1035,1085 +786,539 @@
         <v>13459.45771436664</v>
       </c>
       <c r="Q5">
-        <v>6235.33115417501</v>
+        <v>189631.7041074167</v>
       </c>
       <c r="R5">
-        <v>253051.0033401096</v>
+        <v>1033.888397271512</v>
       </c>
       <c r="S5">
-        <v>22416.7150335599</v>
+        <v>1.406913285477722</v>
       </c>
       <c r="T5">
-        <v>0.04521462212869561</v>
+        <v>1882.146843636079</v>
       </c>
       <c r="U5">
-        <v>1882.146843636078</v>
-      </c>
-      <c r="V5">
-        <v>0.2331465734979018</v>
-      </c>
-      <c r="W5">
-        <v>37301.39294268027</v>
-      </c>
-      <c r="X5">
-        <v>0.3543770106013464</v>
-      </c>
-      <c r="Y5">
-        <v>0.0227482744723457</v>
-      </c>
-      <c r="Z5">
-        <v>462.7374725908535</v>
-      </c>
-      <c r="AA5">
-        <v>505.6104555575493</v>
-      </c>
-      <c r="AB5">
-        <v>0.006844425820848017</v>
-      </c>
-      <c r="AC5">
-        <v>0.123953780012213</v>
-      </c>
-      <c r="AD5">
-        <v>39.41971046784125</v>
-      </c>
-      <c r="AE5">
-        <v>364.1650606960645</v>
-      </c>
-      <c r="AF5">
-        <v>1.25886830285055</v>
-      </c>
-      <c r="AG5">
-        <v>8055.709045054989</v>
-      </c>
-      <c r="AH5">
-        <v>3573.093193670457</v>
-      </c>
-      <c r="AI5">
-        <v>9840.354793369663</v>
-      </c>
-      <c r="AJ5">
-        <v>185.021253435275</v>
-      </c>
-      <c r="AK5">
-        <v>5727.331000956837</v>
+        <v>16.11862353275756</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>0.9499306079738126</v>
+        <v>0.7898583179399756</v>
       </c>
       <c r="C6">
-        <v>67.50238390296867</v>
+        <v>1230.533074935484</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.9775878745962736</v>
+        <v>0.738599174297508</v>
       </c>
       <c r="F6">
-        <v>0.9814814814814815</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="G6">
-        <v>0.7615444967452656</v>
+        <v>0.2861673229473298</v>
       </c>
       <c r="H6">
-        <v>0.9444444444444444</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="J6">
         <v>0.9844559585492227</v>
       </c>
       <c r="K6">
-        <v>37.02102120422777</v>
+        <v>589.8843589170085</v>
       </c>
       <c r="L6">
-        <v>100.8007869304008</v>
+        <v>3196.555144908674</v>
       </c>
       <c r="M6">
-        <v>12.21561680738723</v>
+        <v>379.6762743812665</v>
       </c>
       <c r="N6">
-        <v>1.644143238154796</v>
+        <v>190.3926190361851</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.2845978419538753</v>
       </c>
       <c r="P6">
-        <v>41.44567452909261</v>
+        <v>5097.427773109973</v>
       </c>
       <c r="Q6">
-        <v>4.674094080319696</v>
+        <v>1450.451707165909</v>
       </c>
       <c r="R6">
-        <v>403.8539686040717</v>
+        <v>1239.77299942387</v>
       </c>
       <c r="S6">
-        <v>18.66090969479179</v>
+        <v>1.20643089282663</v>
       </c>
       <c r="T6">
-        <v>0.01045136611173872</v>
+        <v>1386.825055907679</v>
       </c>
       <c r="U6">
-        <v>189.6221491388754</v>
-      </c>
-      <c r="V6">
-        <v>0.07979124219054788</v>
-      </c>
-      <c r="W6">
-        <v>88.15299833061448</v>
-      </c>
-      <c r="X6">
-        <v>0.1036200352791347</v>
-      </c>
-      <c r="Y6">
-        <v>0.002331256560598703</v>
-      </c>
-      <c r="Z6">
-        <v>88.15299833061448</v>
-      </c>
-      <c r="AA6">
-        <v>141.992966682448</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>57.60895888081132</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>52.6185761959027</v>
-      </c>
-      <c r="AH6">
-        <v>792.5523172974397</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>1.753054722368853</v>
-      </c>
-      <c r="AK6">
-        <v>237.3915200831202</v>
+        <v>3.386862704980839</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>0.7330215308933031</v>
+        <v>0.7876260869603814</v>
       </c>
       <c r="C7">
-        <v>4570.732981287303</v>
+        <v>3264.058471716772</v>
       </c>
       <c r="D7">
-        <v>0.9905660377358491</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.5110856460453388</v>
+        <v>0.6838754806552986</v>
       </c>
       <c r="F7">
-        <v>0.8395061728395061</v>
+        <v>0.897196261682243</v>
       </c>
       <c r="G7">
-        <v>0.2475253435771447</v>
+        <v>0.2861673229473298</v>
       </c>
       <c r="H7">
-        <v>0.6363636363636364</v>
+        <v>0.8125</v>
       </c>
       <c r="I7">
-        <v>0.926829268292683</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="J7">
         <v>0.9792746113989638</v>
       </c>
       <c r="K7">
-        <v>2318.507851307576</v>
+        <v>655.3008054273098</v>
       </c>
       <c r="L7">
-        <v>2814.271696868393</v>
+        <v>6182.063643814266</v>
       </c>
       <c r="M7">
-        <v>2259.793480099374</v>
+        <v>392.5916213884038</v>
       </c>
       <c r="N7">
-        <v>3710.812932351406</v>
+        <v>12644.7175720173</v>
       </c>
       <c r="O7">
-        <v>1.110263043027771</v>
+        <v>0.1235431067164463</v>
       </c>
       <c r="P7">
-        <v>7619.157422895378</v>
+        <v>11463.94614990883</v>
       </c>
       <c r="Q7">
-        <v>843.502859446746</v>
+        <v>2079.804680335233</v>
       </c>
       <c r="R7">
-        <v>26406.30728967505</v>
+        <v>1067.796503351061</v>
       </c>
       <c r="S7">
-        <v>7622.098996508928</v>
+        <v>1.410093342668288</v>
       </c>
       <c r="T7">
-        <v>0.0526765298716596</v>
+        <v>1392.775275074651</v>
       </c>
       <c r="U7">
-        <v>1252.709608951803</v>
-      </c>
-      <c r="V7">
-        <v>0.4706977701006648</v>
+        <v>24.11330111804021</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>0.6363112439496769</v>
+        <v>0.7910915060998472</v>
       </c>
       <c r="C8">
-        <v>12052.26834406264</v>
+        <v>18710.96850547953</v>
       </c>
       <c r="D8">
-        <v>0.9682539682539683</v>
+        <v>0.9935897435897436</v>
       </c>
       <c r="E8">
-        <v>0.1564405945890189</v>
+        <v>0.7888451814182272</v>
       </c>
       <c r="F8">
-        <v>0.8837209302325582</v>
+        <v>0.9345794392523364</v>
       </c>
       <c r="G8">
-        <v>0.2143146901297511</v>
+        <v>0.3851898277325371</v>
       </c>
       <c r="H8">
-        <v>0.6</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="I8">
-        <v>0.6521739130434783</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="J8">
-        <v>0.9792746113989638</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="K8">
-        <v>5027.250699506399</v>
+        <v>288.7250259540389</v>
       </c>
       <c r="L8">
-        <v>1939.451081742952</v>
+        <v>948.4045936228275</v>
       </c>
       <c r="M8">
-        <v>3033.613481237152</v>
+        <v>95.87420879990682</v>
       </c>
       <c r="N8">
-        <v>3341.676630110596</v>
+        <v>970.1790931534129</v>
       </c>
       <c r="O8">
-        <v>1.451781653323836</v>
+        <v>0.1490893025712229</v>
       </c>
       <c r="P8">
-        <v>4980.375852660461</v>
+        <v>9592.101593834534</v>
       </c>
       <c r="Q8">
-        <v>5007.568872831011</v>
+        <v>191399.0147333271</v>
       </c>
       <c r="R8">
-        <v>28660.80047481584</v>
+        <v>1111.722526571639</v>
       </c>
       <c r="S8">
-        <v>91294.46004183659</v>
+        <v>1.441181425569842</v>
       </c>
       <c r="T8">
-        <v>0.0491445484804998</v>
+        <v>1387.421718033897</v>
       </c>
       <c r="U8">
-        <v>1340.014065234644</v>
-      </c>
-      <c r="V8">
-        <v>0.5080025742800723</v>
+        <v>25.61979624927541</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>0.791917744807753</v>
+        <v>0.7127605594147681</v>
       </c>
       <c r="C9">
-        <v>23969.81668888901</v>
+        <v>3190.68226263412</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.7806451612903226</v>
       </c>
       <c r="E9">
-        <v>0.7897467586698295</v>
+        <v>0.5963241056825951</v>
       </c>
       <c r="F9">
-        <v>0.8877551020408163</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="G9">
-        <v>0.2827484456764539</v>
+        <v>0.4082970132323891</v>
       </c>
       <c r="H9">
-        <v>0.7333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I9">
-        <v>0.8653846153846154</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="J9">
         <v>0.9844559585492227</v>
       </c>
       <c r="K9">
-        <v>390.0652606310582</v>
+        <v>566.6921101028045</v>
       </c>
       <c r="L9">
-        <v>1635.158965661943</v>
+        <v>2261.33775843964</v>
       </c>
       <c r="M9">
-        <v>62.17826854302336</v>
+        <v>255.620016712235</v>
       </c>
       <c r="N9">
-        <v>10410.30211485852</v>
+        <v>27.35435567379519</v>
       </c>
       <c r="O9">
-        <v>0.003377724399093709</v>
+        <v>0.277882377974413</v>
       </c>
       <c r="P9">
-        <v>6924.780326064325</v>
+        <v>10982.70616562661</v>
       </c>
       <c r="Q9">
-        <v>161491.2903759378</v>
+        <v>1476.227749320089</v>
       </c>
       <c r="R9">
-        <v>71675.06240882106</v>
+        <v>16164.21442342856</v>
       </c>
       <c r="S9">
-        <v>33646.79825966345</v>
+        <v>1.991993899251401</v>
       </c>
       <c r="T9">
-        <v>0.04520894801791683</v>
+        <v>3297.38059493552</v>
       </c>
       <c r="U9">
-        <v>1293.318722027982</v>
-      </c>
-      <c r="V9">
-        <v>108.7969777865361</v>
+        <v>63.7018384588369</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>0.6880313951567831</v>
+        <v>0.6307174758179942</v>
       </c>
       <c r="C10">
-        <v>9822.168317901813</v>
+        <v>2778.812502436882</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E10">
-        <v>0.6346878318481562</v>
+        <v>0.4847566821716522</v>
       </c>
       <c r="F10">
-        <v>0.9130434782608695</v>
+        <v>0.8783783783783784</v>
       </c>
       <c r="G10">
-        <v>0.6775793650793651</v>
+        <v>0.2590979782933724</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="I10">
-        <v>0.5909090909090909</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0.9844559585492227</v>
       </c>
       <c r="K10">
-        <v>443.7000781082627</v>
+        <v>172.403123217799</v>
       </c>
       <c r="L10">
-        <v>3661.95542070403</v>
+        <v>1840.280742867435</v>
       </c>
       <c r="M10">
-        <v>157.3334510941008</v>
+        <v>306.6665782364338</v>
       </c>
       <c r="N10">
-        <v>8650.068201119126</v>
+        <v>28.24834412976112</v>
       </c>
       <c r="O10">
-        <v>0.07036570693219044</v>
+        <v>0.8405975659969435</v>
       </c>
       <c r="P10">
-        <v>8677.499320268807</v>
+        <v>10915.38675384802</v>
       </c>
       <c r="Q10">
-        <v>14959.50314855619</v>
+        <v>1509.374838812835</v>
       </c>
       <c r="R10">
-        <v>60428.43700271287</v>
+        <v>14299.39865850673</v>
       </c>
       <c r="S10">
-        <v>20887.45282655143</v>
+        <v>1.563943610967048</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1456.833980187045</v>
       </c>
       <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
+        <v>35.93996582267724</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>0.7421938569366002</v>
+        <v>0.7585977203421169</v>
       </c>
       <c r="C11">
-        <v>19300.99152884244</v>
+        <v>2953.264002102429</v>
       </c>
       <c r="D11">
-        <v>0.9487179487179487</v>
+        <v>0.9389312977099237</v>
       </c>
       <c r="E11">
-        <v>0.683999493921467</v>
+        <v>0.6265060039039756</v>
       </c>
       <c r="F11">
-        <v>0.9238095238095239</v>
+        <v>0.9204545454545454</v>
       </c>
       <c r="G11">
-        <v>0.2955976264218096</v>
+        <v>0.2820171128958512</v>
       </c>
       <c r="H11">
-        <v>0.6341229756873942</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I11">
-        <v>0.7246534714488357</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="J11">
-        <v>0.9844559585492227</v>
+        <v>0.9740932642487047</v>
       </c>
       <c r="K11">
-        <v>251.7255873761135</v>
+        <v>439.1230502552157</v>
       </c>
       <c r="L11">
-        <v>1194.09097085023</v>
+        <v>1178.266179808862</v>
       </c>
       <c r="M11">
-        <v>128.3275305361337</v>
+        <v>242.8089766449855</v>
       </c>
       <c r="N11">
-        <v>900.0651975043446</v>
+        <v>47.98040645994601</v>
       </c>
       <c r="O11">
-        <v>0.293332613575353</v>
+        <v>0.2040704743351608</v>
       </c>
       <c r="P11">
-        <v>8698.665839579922</v>
+        <v>14428.73218493148</v>
       </c>
       <c r="Q11">
-        <v>5956.444668361496</v>
+        <v>868.7751496964341</v>
       </c>
       <c r="R11">
-        <v>188863.8644315609</v>
+        <v>13822.20592005453</v>
       </c>
       <c r="S11">
-        <v>24227.44600014922</v>
+        <v>1.684704506404562</v>
       </c>
       <c r="T11">
-        <v>0.04600666916446065</v>
+        <v>1413.318115262746</v>
       </c>
       <c r="U11">
-        <v>1387.421718033897</v>
-      </c>
-      <c r="V11">
-        <v>3.507062874287191</v>
+        <v>42.80526503178534</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>0.7127605594147681</v>
+        <v>0.6016321210095347</v>
       </c>
       <c r="C12">
-        <v>5552.529633483417</v>
+        <v>2307.296821493965</v>
       </c>
       <c r="D12">
-        <v>0.7806451612903226</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="E12">
-        <v>0.5963241056825951</v>
+        <v>0.5484692688876133</v>
       </c>
       <c r="F12">
-        <v>0.8584905660377359</v>
+        <v>0.48</v>
       </c>
       <c r="G12">
-        <v>0.4082970132323891</v>
+        <v>0.3458308320724666</v>
       </c>
       <c r="H12">
-        <v>0.4444444444444444</v>
+        <v>0.8</v>
       </c>
       <c r="I12">
-        <v>0.9166666666666666</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="J12">
         <v>0.9844559585492227</v>
       </c>
       <c r="K12">
-        <v>566.6921101028045</v>
+        <v>235.0196787957344</v>
       </c>
       <c r="L12">
-        <v>2261.33775843964</v>
+        <v>1722.231116416934</v>
       </c>
       <c r="M12">
-        <v>255.620016712235</v>
+        <v>312.6067562119705</v>
       </c>
       <c r="N12">
-        <v>27.35435567379519</v>
+        <v>27.11608304094456</v>
       </c>
       <c r="O12">
-        <v>0.277882377974413</v>
+        <v>1.048232554330602</v>
       </c>
       <c r="P12">
-        <v>10982.70616562661</v>
+        <v>9256.674498971523</v>
       </c>
       <c r="Q12">
-        <v>2429.407273070654</v>
+        <v>948.2716093942944</v>
       </c>
       <c r="R12">
-        <v>30579.67118907514</v>
+        <v>10841.04412846</v>
       </c>
       <c r="S12">
-        <v>16164.21442342856</v>
+        <v>1.986812552101142</v>
       </c>
       <c r="T12">
-        <v>1.991993899251401</v>
+        <v>1996.167576657228</v>
       </c>
       <c r="U12">
-        <v>3297.38059493552</v>
-      </c>
-      <c r="V12">
-        <v>63.7018384588369</v>
-      </c>
-      <c r="W12">
-        <v>10414.31375231952</v>
-      </c>
-      <c r="X12">
-        <v>21.82847065839226</v>
-      </c>
-      <c r="Y12">
-        <v>0.05979674563833264</v>
-      </c>
-      <c r="Z12">
-        <v>4156.975248560701</v>
-      </c>
-      <c r="AA12">
-        <v>4012.373743650776</v>
-      </c>
-      <c r="AB12">
-        <v>0.06404947079390244</v>
-      </c>
-      <c r="AC12">
-        <v>0.123953780012213</v>
-      </c>
-      <c r="AD12">
-        <v>59.78192908836191</v>
-      </c>
-      <c r="AE12">
-        <v>397.4727048921189</v>
-      </c>
-      <c r="AF12">
-        <v>0.210455155482066</v>
-      </c>
-      <c r="AG12">
-        <v>5490.853741127895</v>
-      </c>
-      <c r="AH12">
-        <v>6321.157778703541</v>
-      </c>
-      <c r="AI12">
-        <v>5565.245643505668</v>
-      </c>
-      <c r="AJ12">
-        <v>1159.376311014817</v>
-      </c>
-      <c r="AK12">
-        <v>10511.45274726943</v>
+        <v>38.09854337855263</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>0.6307174758179942</v>
+        <v>0.7597492124482385</v>
       </c>
       <c r="C13">
-        <v>5611.925785046685</v>
+        <v>3019.575837440168</v>
       </c>
       <c r="D13">
-        <v>0.2666666666666667</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="E13">
-        <v>0.4847566821716522</v>
+        <v>0.6703840391388737</v>
       </c>
       <c r="F13">
-        <v>0.8783783783783784</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2590979782933724</v>
+        <v>0.7997681258132094</v>
       </c>
       <c r="H13">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7916666666666666</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0.9844559585492227</v>
       </c>
       <c r="K13">
-        <v>172.403123217799</v>
+        <v>1098.806643698618</v>
       </c>
       <c r="L13">
-        <v>1840.280742867434</v>
+        <v>1608.334409971814</v>
       </c>
       <c r="M13">
-        <v>306.6665782364338</v>
+        <v>2860.595397330711</v>
       </c>
       <c r="N13">
-        <v>28.24834412976112</v>
+        <v>673.0737162662239</v>
       </c>
       <c r="O13">
-        <v>0.8405975659969435</v>
+        <v>2.057188314388211</v>
       </c>
       <c r="P13">
-        <v>10915.38675384802</v>
+        <v>12739.32607415921</v>
       </c>
       <c r="Q13">
-        <v>3331.16804186463</v>
+        <v>3784.452100492582</v>
       </c>
       <c r="R13">
-        <v>34991.32675873873</v>
+        <v>8382.112343180483</v>
       </c>
       <c r="S13">
-        <v>14299.39865850673</v>
+        <v>1.991993899251401</v>
       </c>
       <c r="T13">
-        <v>0.0478388233404102</v>
+        <v>2000.882506069727</v>
       </c>
       <c r="U13">
-        <v>1456.833980187045</v>
-      </c>
-      <c r="V13">
-        <v>0.5080025742800723</v>
-      </c>
-      <c r="W13">
-        <v>5289.887553989578</v>
-      </c>
-      <c r="X13">
-        <v>0.3108601058374041</v>
-      </c>
-      <c r="Y13">
-        <v>0.07665661444064811</v>
-      </c>
-      <c r="Z13">
-        <v>2113.581062859598</v>
-      </c>
-      <c r="AA13">
-        <v>718.9783223415999</v>
-      </c>
-      <c r="AB13">
-        <v>11.11241757874931</v>
-      </c>
-      <c r="AC13">
-        <v>0.1204689770774792</v>
-      </c>
-      <c r="AD13">
-        <v>60.40998356180931</v>
-      </c>
-      <c r="AE13">
-        <v>1744.433403323337</v>
-      </c>
-      <c r="AF13">
-        <v>0.5575671682573679</v>
-      </c>
-      <c r="AG13">
-        <v>4216.471717021682</v>
-      </c>
-      <c r="AH13">
-        <v>8408.875012253735</v>
-      </c>
-      <c r="AI13">
-        <v>3224.571864371669</v>
-      </c>
-      <c r="AJ13">
-        <v>2760.210974292431</v>
-      </c>
-      <c r="AK13">
-        <v>9115.523104930644</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14">
-        <v>0.7585977203421169</v>
-      </c>
-      <c r="C14">
-        <v>4422.738585138834</v>
-      </c>
-      <c r="D14">
-        <v>0.9389312977099237</v>
-      </c>
-      <c r="E14">
-        <v>0.6265060039039756</v>
-      </c>
-      <c r="F14">
-        <v>0.9204545454545454</v>
-      </c>
-      <c r="G14">
-        <v>0.2820171128958512</v>
-      </c>
-      <c r="H14">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="I14">
-        <v>0.9848484848484849</v>
-      </c>
-      <c r="J14">
-        <v>0.9740932642487047</v>
-      </c>
-      <c r="K14">
-        <v>439.1230502552157</v>
-      </c>
-      <c r="L14">
-        <v>1178.266179808862</v>
-      </c>
-      <c r="M14">
-        <v>242.8089766449855</v>
-      </c>
-      <c r="N14">
-        <v>47.98040645994601</v>
-      </c>
-      <c r="O14">
-        <v>0.2040704743351608</v>
-      </c>
-      <c r="P14">
-        <v>14428.73218493148</v>
-      </c>
-      <c r="Q14">
-        <v>726.007278802468</v>
-      </c>
-      <c r="R14">
-        <v>20773.55607181341</v>
-      </c>
-      <c r="S14">
-        <v>13822.20592005453</v>
-      </c>
-      <c r="T14">
-        <v>0.0491445484804998</v>
-      </c>
-      <c r="U14">
-        <v>1413.318115262746</v>
-      </c>
-      <c r="V14">
-        <v>0.611622609559207</v>
-      </c>
-      <c r="W14">
-        <v>10274.81427120904</v>
-      </c>
-      <c r="X14">
-        <v>3.381861162433613</v>
-      </c>
-      <c r="Y14">
-        <v>0.08175770582435495</v>
-      </c>
-      <c r="Z14">
-        <v>2956.347261686765</v>
-      </c>
-      <c r="AA14">
-        <v>465.2070494830216</v>
-      </c>
-      <c r="AB14">
-        <v>25.89237000662052</v>
-      </c>
-      <c r="AC14">
-        <v>0.1427845118875273</v>
-      </c>
-      <c r="AD14">
-        <v>1214.214519568973</v>
-      </c>
-      <c r="AE14">
-        <v>358.356660915989</v>
-      </c>
-      <c r="AF14">
-        <v>0.0981668957969048</v>
-      </c>
-      <c r="AG14">
-        <v>2853.888783417534</v>
-      </c>
-      <c r="AH14">
-        <v>6204.971516098207</v>
-      </c>
-      <c r="AI14">
-        <v>16126.00387758384</v>
-      </c>
-      <c r="AJ14">
-        <v>491.8357839556213</v>
-      </c>
-      <c r="AK14">
-        <v>16218.12021421546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>0.6016321210095347</v>
-      </c>
-      <c r="C15">
-        <v>4793.607971521681</v>
-      </c>
-      <c r="D15">
-        <v>0.1014492753623188</v>
-      </c>
-      <c r="E15">
-        <v>0.5484692688876133</v>
-      </c>
-      <c r="F15">
-        <v>0.48</v>
-      </c>
-      <c r="G15">
-        <v>0.3458308320724666</v>
-      </c>
-      <c r="H15">
-        <v>0.8</v>
-      </c>
-      <c r="I15">
-        <v>0.9512195121951219</v>
-      </c>
-      <c r="J15">
-        <v>0.9844559585492227</v>
-      </c>
-      <c r="K15">
-        <v>235.0196787957344</v>
-      </c>
-      <c r="L15">
-        <v>1722.231116416934</v>
-      </c>
-      <c r="M15">
-        <v>312.6067562119705</v>
-      </c>
-      <c r="N15">
-        <v>27.11608304094456</v>
-      </c>
-      <c r="O15">
-        <v>1.048232554330602</v>
-      </c>
-      <c r="P15">
-        <v>9256.674498971523</v>
-      </c>
-      <c r="Q15">
-        <v>2264.699512803725</v>
-      </c>
-      <c r="R15">
-        <v>30864.16378453115</v>
-      </c>
-      <c r="S15">
-        <v>10841.04412846</v>
-      </c>
-      <c r="T15">
-        <v>1.986812552101142</v>
-      </c>
-      <c r="U15">
-        <v>1996.167576657228</v>
-      </c>
-      <c r="V15">
-        <v>0.5374772645281498</v>
-      </c>
-      <c r="W15">
-        <v>7209.663734861214</v>
-      </c>
-      <c r="X15">
-        <v>33.82702661976779</v>
-      </c>
-      <c r="Y15">
-        <v>0.04051272953420422</v>
-      </c>
-      <c r="Z15">
-        <v>3774.229417648638</v>
-      </c>
-      <c r="AA15">
-        <v>3951.271745293564</v>
-      </c>
-      <c r="AB15">
-        <v>25.89237000662052</v>
-      </c>
-      <c r="AC15">
-        <v>0.118853646555115</v>
-      </c>
-      <c r="AD15">
-        <v>36.39636302958846</v>
-      </c>
-      <c r="AE15">
-        <v>1784.335141107944</v>
-      </c>
-      <c r="AF15">
-        <v>0.6788236552204792</v>
-      </c>
-      <c r="AG15">
-        <v>11642.93041446455</v>
-      </c>
-      <c r="AH15">
-        <v>9584.807203854027</v>
-      </c>
-      <c r="AI15">
-        <v>1672.921485878485</v>
-      </c>
-      <c r="AJ15">
-        <v>8776.643877394272</v>
-      </c>
-      <c r="AK15">
-        <v>12148.52437719335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16">
-        <v>0.7597492124482385</v>
-      </c>
-      <c r="C16">
-        <v>8210.550692858069</v>
-      </c>
-      <c r="D16">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="E16">
-        <v>0.6703840391388737</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7997681258132094</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0.9844559585492227</v>
-      </c>
-      <c r="K16">
-        <v>1098.806643698618</v>
-      </c>
-      <c r="L16">
-        <v>1608.334409971814</v>
-      </c>
-      <c r="M16">
-        <v>362.6773198053953</v>
-      </c>
-      <c r="N16">
-        <v>79.76197331119656</v>
-      </c>
-      <c r="O16">
-        <v>2.057188314388211</v>
-      </c>
-      <c r="P16">
-        <v>12739.32607415921</v>
-      </c>
-      <c r="Q16">
-        <v>6319.015590488922</v>
-      </c>
-      <c r="R16">
-        <v>65867.94043293898</v>
-      </c>
-      <c r="S16">
-        <v>8382.112343180483</v>
-      </c>
-      <c r="T16">
-        <v>1.991993899251401</v>
-      </c>
-      <c r="U16">
-        <v>2000.882506069727</v>
-      </c>
-      <c r="V16">
         <v>63.7018384588369</v>
-      </c>
-      <c r="W16">
-        <v>29351.67087851042</v>
-      </c>
-      <c r="X16">
-        <v>31.07730859304829</v>
-      </c>
-      <c r="Y16">
-        <v>0.305288102887147</v>
-      </c>
-      <c r="Z16">
-        <v>159.5451119006754</v>
-      </c>
-      <c r="AA16">
-        <v>2892.20283922143</v>
-      </c>
-      <c r="AB16">
-        <v>25.89237000662052</v>
-      </c>
-      <c r="AC16">
-        <v>0.1054057198809072</v>
-      </c>
-      <c r="AD16">
-        <v>432.5069487923142</v>
-      </c>
-      <c r="AE16">
-        <v>522.3871667526381</v>
-      </c>
-      <c r="AF16">
-        <v>0.2659798284936385</v>
-      </c>
-      <c r="AG16">
-        <v>4172.396753520146</v>
-      </c>
-      <c r="AH16">
-        <v>18959.45533544857</v>
-      </c>
-      <c r="AI16">
-        <v>1981.71979563968</v>
-      </c>
-      <c r="AJ16">
-        <v>37.35475494120223</v>
-      </c>
-      <c r="AK16">
-        <v>4641.966087163501</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -549,7 +549,7 @@
         <v>0.9106470468257164</v>
       </c>
       <c r="C2">
-        <v>88.84352398267261</v>
+        <v>248.7618671514832</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -573,37 +573,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K2">
-        <v>37.02102120422777</v>
+        <v>103.6588593718377</v>
       </c>
       <c r="L2">
-        <v>66.18450598416055</v>
+        <v>185.3166167556494</v>
       </c>
       <c r="M2">
-        <v>17.05657711929942</v>
+        <v>47.75841593403834</v>
       </c>
       <c r="N2">
-        <v>1.494934763415977</v>
+        <v>4.185817337564732</v>
       </c>
       <c r="O2">
-        <v>0.07373219257548849</v>
+        <v>0.2064501392113676</v>
       </c>
       <c r="P2">
-        <v>298.682876547718</v>
+        <v>836.3120543336099</v>
       </c>
       <c r="Q2">
-        <v>42.65298506361818</v>
+        <v>119.4283581781308</v>
       </c>
       <c r="R2">
-        <v>21.51189439004498</v>
+        <v>60.2333042921259</v>
       </c>
       <c r="S2">
-        <v>0.9509564741117781</v>
+        <v>2.662678127512977</v>
       </c>
       <c r="T2">
-        <v>458.551435813683</v>
+        <v>1283.944020278312</v>
       </c>
       <c r="U2">
-        <v>33.09784425654357</v>
+        <v>92.67396391832192</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -614,7 +614,7 @@
         <v>0.8174622091091611</v>
       </c>
       <c r="C3">
-        <v>6559.030636625042</v>
+        <v>10822.40055043132</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -638,37 +638,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K3">
-        <v>507.1953028430185</v>
+        <v>836.8722496909808</v>
       </c>
       <c r="L3">
-        <v>3171.733611250544</v>
+        <v>5233.360458563399</v>
       </c>
       <c r="M3">
-        <v>116.2281539047597</v>
+        <v>191.7764539428536</v>
       </c>
       <c r="N3">
-        <v>2945.040347761218</v>
+        <v>4859.316573806011</v>
       </c>
       <c r="O3">
-        <v>0.2488513791849028</v>
+        <v>0.4106047756550897</v>
       </c>
       <c r="P3">
-        <v>8553.595209496189</v>
+        <v>14113.43209566872</v>
       </c>
       <c r="Q3">
-        <v>2654.450396925055</v>
+        <v>4379.843154926343</v>
       </c>
       <c r="R3">
-        <v>52884.47793861916</v>
+        <v>87259.38859872165</v>
       </c>
       <c r="S3">
-        <v>1.636071092675621</v>
+        <v>2.699517302914776</v>
       </c>
       <c r="T3">
-        <v>1273.758121014223</v>
+        <v>2101.700899673469</v>
       </c>
       <c r="U3">
-        <v>40.97299858942281</v>
+        <v>67.60544767254765</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -679,7 +679,7 @@
         <v>0.8000369901708206</v>
       </c>
       <c r="C4">
-        <v>6882.888177812845</v>
+        <v>13765.7763556257</v>
       </c>
       <c r="D4">
         <v>0.9928057553956835</v>
@@ -703,37 +703,37 @@
         <v>0.9533678756476683</v>
       </c>
       <c r="K4">
-        <v>432.474537130341</v>
+        <v>864.9490742606823</v>
       </c>
       <c r="L4">
-        <v>7306.810903706583</v>
+        <v>14613.62180741317</v>
       </c>
       <c r="M4">
-        <v>160.6509041514181</v>
+        <v>321.3018083028364</v>
       </c>
       <c r="N4">
-        <v>304.6600060130494</v>
+        <v>609.3200120260991</v>
       </c>
       <c r="O4">
-        <v>0.3380338073613312</v>
+        <v>0.6760676147226627</v>
       </c>
       <c r="P4">
-        <v>12358.59038767009</v>
+        <v>24717.1807753402</v>
       </c>
       <c r="Q4">
-        <v>985.687969224856</v>
+        <v>1971.375938449713</v>
       </c>
       <c r="R4">
-        <v>52714.40599982435</v>
+        <v>105428.8119996488</v>
       </c>
       <c r="S4">
-        <v>1.44795268428474</v>
+        <v>2.895905368569481</v>
       </c>
       <c r="T4">
-        <v>1411.089067217393</v>
+        <v>2822.178134434787</v>
       </c>
       <c r="U4">
-        <v>35.6141945115499</v>
+        <v>71.22838902309984</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -744,7 +744,7 @@
         <v>0.8042857271146556</v>
       </c>
       <c r="C5">
-        <v>18920.111850523</v>
+        <v>25542.15099820605</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -768,37 +768,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K5">
-        <v>436.4040674637876</v>
+        <v>589.1454910761134</v>
       </c>
       <c r="L5">
-        <v>1378.652131982468</v>
+        <v>1861.180378176332</v>
       </c>
       <c r="M5">
-        <v>253.2821070191641</v>
+        <v>341.9308444758716</v>
       </c>
       <c r="N5">
-        <v>28.08018763907472</v>
+        <v>37.90825331275089</v>
       </c>
       <c r="O5">
-        <v>0.08926213924019215</v>
+        <v>0.1205038879742594</v>
       </c>
       <c r="P5">
-        <v>13459.45771436664</v>
+        <v>18170.26791439498</v>
       </c>
       <c r="Q5">
-        <v>189631.7041074167</v>
+        <v>256002.8005450127</v>
       </c>
       <c r="R5">
-        <v>1033.888397271512</v>
+        <v>1395.749336316541</v>
       </c>
       <c r="S5">
-        <v>1.406913285477722</v>
+        <v>1.899332935394924</v>
       </c>
       <c r="T5">
-        <v>1882.146843636079</v>
+        <v>2540.898238908707</v>
       </c>
       <c r="U5">
-        <v>16.11862353275756</v>
+        <v>21.76014176922271</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -809,7 +809,7 @@
         <v>0.7898583179399756</v>
       </c>
       <c r="C6">
-        <v>1230.533074935484</v>
+        <v>1476.639689922581</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -833,37 +833,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K6">
-        <v>589.8843589170085</v>
+        <v>707.8612307004104</v>
       </c>
       <c r="L6">
-        <v>3196.555144908674</v>
+        <v>3835.866173890409</v>
       </c>
       <c r="M6">
-        <v>379.6762743812665</v>
+        <v>455.6115292575199</v>
       </c>
       <c r="N6">
-        <v>190.3926190361851</v>
+        <v>228.4711428434221</v>
       </c>
       <c r="O6">
-        <v>0.2845978419538753</v>
+        <v>0.3415174103446504</v>
       </c>
       <c r="P6">
-        <v>5097.427773109973</v>
+        <v>6116.913327731968</v>
       </c>
       <c r="Q6">
-        <v>1450.451707165909</v>
+        <v>1740.542048599091</v>
       </c>
       <c r="R6">
-        <v>1239.77299942387</v>
+        <v>1487.727599308645</v>
       </c>
       <c r="S6">
-        <v>1.20643089282663</v>
+        <v>1.447717071391956</v>
       </c>
       <c r="T6">
-        <v>1386.825055907679</v>
+        <v>1664.190067089215</v>
       </c>
       <c r="U6">
-        <v>3.386862704980839</v>
+        <v>4.064235245977008</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -874,7 +874,7 @@
         <v>0.7876260869603814</v>
       </c>
       <c r="C7">
-        <v>3264.058471716772</v>
+        <v>4569.681860403481</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -898,37 +898,37 @@
         <v>0.9792746113989638</v>
       </c>
       <c r="K7">
-        <v>655.3008054273098</v>
+        <v>917.421127598234</v>
       </c>
       <c r="L7">
-        <v>6182.063643814266</v>
+        <v>8654.889101339973</v>
       </c>
       <c r="M7">
-        <v>392.5916213884038</v>
+        <v>549.6282699437654</v>
       </c>
       <c r="N7">
-        <v>12644.7175720173</v>
+        <v>17702.60460082423</v>
       </c>
       <c r="O7">
-        <v>0.1235431067164463</v>
+        <v>0.1729603494030249</v>
       </c>
       <c r="P7">
-        <v>11463.94614990883</v>
+        <v>16049.52460987237</v>
       </c>
       <c r="Q7">
-        <v>2079.804680335233</v>
+        <v>2911.726552469327</v>
       </c>
       <c r="R7">
-        <v>1067.796503351061</v>
+        <v>1494.915104691486</v>
       </c>
       <c r="S7">
-        <v>1.410093342668288</v>
+        <v>1.974130679735604</v>
       </c>
       <c r="T7">
-        <v>1392.775275074651</v>
+        <v>1949.885385104512</v>
       </c>
       <c r="U7">
-        <v>24.11330111804021</v>
+        <v>33.7586215652563</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -939,7 +939,7 @@
         <v>0.7910915060998472</v>
       </c>
       <c r="C8">
-        <v>18710.96850547953</v>
+        <v>27130.90433294532</v>
       </c>
       <c r="D8">
         <v>0.9935897435897436</v>
@@ -963,37 +963,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K8">
-        <v>288.7250259540389</v>
+        <v>418.6512876333565</v>
       </c>
       <c r="L8">
-        <v>948.4045936228275</v>
+        <v>1375.1866607531</v>
       </c>
       <c r="M8">
-        <v>95.87420879990682</v>
+        <v>139.0176027598649</v>
       </c>
       <c r="N8">
-        <v>970.1790931534129</v>
+        <v>1406.759685072449</v>
       </c>
       <c r="O8">
-        <v>0.1490893025712229</v>
+        <v>0.2161794887282732</v>
       </c>
       <c r="P8">
-        <v>9592.101593834534</v>
+        <v>13908.54731106008</v>
       </c>
       <c r="Q8">
-        <v>191399.0147333271</v>
+        <v>277528.5713633244</v>
       </c>
       <c r="R8">
-        <v>1111.722526571639</v>
+        <v>1611.997663528877</v>
       </c>
       <c r="S8">
-        <v>1.441181425569842</v>
+        <v>2.089713067076272</v>
       </c>
       <c r="T8">
-        <v>1387.421718033897</v>
+        <v>2011.761491149151</v>
       </c>
       <c r="U8">
-        <v>25.61979624927541</v>
+        <v>37.14870456144935</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1004,7 +1004,7 @@
         <v>0.7127605594147681</v>
       </c>
       <c r="C9">
-        <v>3190.68226263412</v>
+        <v>4147.886941424356</v>
       </c>
       <c r="D9">
         <v>0.7806451612903226</v>
@@ -1028,37 +1028,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K9">
-        <v>566.6921101028045</v>
+        <v>736.6997431336459</v>
       </c>
       <c r="L9">
-        <v>2261.33775843964</v>
+        <v>2939.739085971532</v>
       </c>
       <c r="M9">
-        <v>255.620016712235</v>
+        <v>332.3060217259056</v>
       </c>
       <c r="N9">
-        <v>27.35435567379519</v>
+        <v>35.56066237593376</v>
       </c>
       <c r="O9">
-        <v>0.277882377974413</v>
+        <v>0.361247091366737</v>
       </c>
       <c r="P9">
-        <v>10982.70616562661</v>
+        <v>14277.5180153146</v>
       </c>
       <c r="Q9">
-        <v>1476.227749320089</v>
+        <v>1919.096074116116</v>
       </c>
       <c r="R9">
-        <v>16164.21442342856</v>
+        <v>21013.47875045714</v>
       </c>
       <c r="S9">
-        <v>1.991993899251401</v>
+        <v>2.589592069026822</v>
       </c>
       <c r="T9">
-        <v>3297.38059493552</v>
+        <v>4286.594773416177</v>
       </c>
       <c r="U9">
-        <v>63.7018384588369</v>
+        <v>82.81238999648798</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1069,7 +1069,7 @@
         <v>0.6307174758179942</v>
       </c>
       <c r="C10">
-        <v>2778.812502436882</v>
+        <v>12504.65626096595</v>
       </c>
       <c r="D10">
         <v>0.2666666666666667</v>
@@ -1093,37 +1093,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K10">
-        <v>172.403123217799</v>
+        <v>775.8140544800943</v>
       </c>
       <c r="L10">
-        <v>1840.280742867435</v>
+        <v>8281.263342903441</v>
       </c>
       <c r="M10">
-        <v>306.6665782364338</v>
+        <v>1379.99960206395</v>
       </c>
       <c r="N10">
-        <v>28.24834412976112</v>
+        <v>127.1175485839248</v>
       </c>
       <c r="O10">
-        <v>0.8405975659969435</v>
+        <v>3.782689046986239</v>
       </c>
       <c r="P10">
-        <v>10915.38675384802</v>
+        <v>49119.24039231602</v>
       </c>
       <c r="Q10">
-        <v>1509.374838812835</v>
+        <v>6792.186774657747</v>
       </c>
       <c r="R10">
-        <v>14299.39865850673</v>
+        <v>64347.29396328019</v>
       </c>
       <c r="S10">
-        <v>1.563943610967048</v>
+        <v>7.037746249351705</v>
       </c>
       <c r="T10">
-        <v>1456.833980187045</v>
+        <v>6555.752910841691</v>
       </c>
       <c r="U10">
-        <v>35.93996582267724</v>
+        <v>161.7298462020473</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1134,7 +1134,7 @@
         <v>0.7585977203421169</v>
       </c>
       <c r="C11">
-        <v>2953.264002102429</v>
+        <v>5168.212003679254</v>
       </c>
       <c r="D11">
         <v>0.9389312977099237</v>
@@ -1158,37 +1158,37 @@
         <v>0.9740932642487047</v>
       </c>
       <c r="K11">
-        <v>439.1230502552157</v>
+        <v>768.4653379466278</v>
       </c>
       <c r="L11">
-        <v>1178.266179808862</v>
+        <v>2061.965814665508</v>
       </c>
       <c r="M11">
-        <v>242.8089766449855</v>
+        <v>424.9157091287248</v>
       </c>
       <c r="N11">
-        <v>47.98040645994601</v>
+        <v>83.96571130490555</v>
       </c>
       <c r="O11">
-        <v>0.2040704743351608</v>
+        <v>0.3571233300865316</v>
       </c>
       <c r="P11">
-        <v>14428.73218493148</v>
+        <v>25250.2813236301</v>
       </c>
       <c r="Q11">
-        <v>868.7751496964341</v>
+        <v>1520.35651196876</v>
       </c>
       <c r="R11">
-        <v>13822.20592005453</v>
+        <v>24188.86036009544</v>
       </c>
       <c r="S11">
-        <v>1.684704506404562</v>
+        <v>2.948232886207984</v>
       </c>
       <c r="T11">
-        <v>1413.318115262746</v>
+        <v>2473.306701709806</v>
       </c>
       <c r="U11">
-        <v>42.80526503178534</v>
+        <v>74.90921380562438</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1199,7 +1199,7 @@
         <v>0.6016321210095347</v>
       </c>
       <c r="C12">
-        <v>2307.296821493965</v>
+        <v>13843.78092896376</v>
       </c>
       <c r="D12">
         <v>0.1014492753623188</v>
@@ -1223,37 +1223,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K12">
-        <v>235.0196787957344</v>
+        <v>1410.118072774403</v>
       </c>
       <c r="L12">
-        <v>1722.231116416934</v>
+        <v>10333.38669850158</v>
       </c>
       <c r="M12">
-        <v>312.6067562119705</v>
+        <v>1875.640537271819</v>
       </c>
       <c r="N12">
-        <v>27.11608304094456</v>
+        <v>162.696498245667</v>
       </c>
       <c r="O12">
-        <v>1.048232554330602</v>
+        <v>6.289395325983597</v>
       </c>
       <c r="P12">
-        <v>9256.674498971523</v>
+        <v>55540.04699382901</v>
       </c>
       <c r="Q12">
-        <v>948.2716093942944</v>
+        <v>5689.629656365753</v>
       </c>
       <c r="R12">
-        <v>10841.04412846</v>
+        <v>65046.26477075987</v>
       </c>
       <c r="S12">
-        <v>1.986812552101142</v>
+        <v>11.92087531260683</v>
       </c>
       <c r="T12">
-        <v>1996.167576657228</v>
+        <v>11977.00545994334</v>
       </c>
       <c r="U12">
-        <v>38.09854337855263</v>
+        <v>228.5912602713153</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1264,7 +1264,7 @@
         <v>0.7597492124482385</v>
       </c>
       <c r="C13">
-        <v>3019.575837440168</v>
+        <v>25213.45824262535</v>
       </c>
       <c r="D13">
         <v>0.8636363636363636</v>
@@ -1288,37 +1288,37 @@
         <v>0.9844559585492227</v>
       </c>
       <c r="K13">
-        <v>1098.806643698618</v>
+        <v>9175.035474883445</v>
       </c>
       <c r="L13">
-        <v>1608.334409971814</v>
+        <v>13429.59232326462</v>
       </c>
       <c r="M13">
-        <v>2860.595397330711</v>
+        <v>23885.97156771139</v>
       </c>
       <c r="N13">
-        <v>673.0737162662239</v>
+        <v>5620.165530822958</v>
       </c>
       <c r="O13">
-        <v>2.057188314388211</v>
+        <v>17.17752242514153</v>
       </c>
       <c r="P13">
-        <v>12739.32607415921</v>
+        <v>106373.3727192292</v>
       </c>
       <c r="Q13">
-        <v>3784.452100492582</v>
+        <v>31600.175039113</v>
       </c>
       <c r="R13">
-        <v>8382.112343180483</v>
+        <v>69990.63806555689</v>
       </c>
       <c r="S13">
-        <v>1.991993899251401</v>
+        <v>16.63314905874917</v>
       </c>
       <c r="T13">
-        <v>2000.882506069727</v>
+        <v>16707.36892568219</v>
       </c>
       <c r="U13">
-        <v>63.7018384588369</v>
+        <v>531.910351131287</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -522,40 +522,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.5647141722315763</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="C2">
-        <v>0.9008264394884146</v>
+        <v>0.86</v>
       </c>
       <c r="D2">
-        <v>0.8868868228160453</v>
+        <v>0.85</v>
       </c>
       <c r="E2">
-        <v>0.9052460482252671</v>
+        <v>0.873</v>
       </c>
       <c r="F2">
-        <v>0.6232491994818355</v>
+        <v>0.598</v>
       </c>
       <c r="G2">
-        <v>0.7227975777863914</v>
+        <v>0.698</v>
       </c>
       <c r="H2">
-        <v>0.6502637594405153</v>
+        <v>0.63</v>
       </c>
       <c r="I2">
-        <v>0.7210928914006453</v>
+        <v>0.652</v>
       </c>
       <c r="J2">
-        <v>0.8117208459005834</v>
+        <v>0.749</v>
       </c>
       <c r="K2">
-        <v>0.6788652307689738</v>
+        <v>0.637</v>
       </c>
       <c r="L2">
-        <v>0.8427215233047247</v>
+        <v>0.798</v>
       </c>
       <c r="M2">
-        <v>0.9532050037900419</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -563,40 +563,40 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.7263306641544983</v>
+        <v>0.726</v>
       </c>
       <c r="C3">
-        <v>0.8144135657089024</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="D3">
-        <v>0.8280734809232219</v>
+        <v>0.826</v>
       </c>
       <c r="E3">
-        <v>0.8572774375883184</v>
+        <v>0.843</v>
       </c>
       <c r="F3">
-        <v>0.8224211022138482</v>
+        <v>0.822</v>
       </c>
       <c r="G3">
-        <v>0.8563353744700894</v>
+        <v>0.856</v>
       </c>
       <c r="H3">
-        <v>0.843617522373999</v>
+        <v>0.844</v>
       </c>
       <c r="I3">
-        <v>0.7960433349034386</v>
+        <v>0.796</v>
       </c>
       <c r="J3">
-        <v>0.8186528497409327</v>
+        <v>0.819</v>
       </c>
       <c r="K3">
-        <v>0.7795572303344325</v>
+        <v>0.78</v>
       </c>
       <c r="L3">
-        <v>0.8469147432878003</v>
+        <v>0.847</v>
       </c>
       <c r="M3">
-        <v>0.9740932642487046</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -604,40 +604,40 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.1692573402417962</v>
+        <v>0.161</v>
       </c>
       <c r="C4">
-        <v>0.8963730569948186</v>
+        <v>0.896</v>
       </c>
       <c r="D4">
-        <v>0.8860103626943006</v>
+        <v>0.902</v>
       </c>
       <c r="E4">
-        <v>0.885146804835924</v>
+        <v>0.881</v>
       </c>
       <c r="F4">
-        <v>0.7409326424870468</v>
+        <v>0.741</v>
       </c>
       <c r="G4">
-        <v>0.7512953367875648</v>
+        <v>0.751</v>
       </c>
       <c r="H4">
-        <v>0.83419689119171</v>
+        <v>0.834</v>
       </c>
       <c r="I4">
-        <v>0.4759277682668241</v>
+        <v>0.238</v>
       </c>
       <c r="J4">
-        <v>0.7767237931111458</v>
+        <v>0.668</v>
       </c>
       <c r="K4">
-        <v>0.2794804615871591</v>
+        <v>0.166</v>
       </c>
       <c r="L4">
-        <v>0.7521588946459412</v>
+        <v>0.725</v>
       </c>
       <c r="M4">
-        <v>0.9326424870466321</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -645,40 +645,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.2039689816552665</v>
+        <v>0.19</v>
       </c>
       <c r="C5">
-        <v>0.7735505523009996</v>
+        <v>0.637</v>
       </c>
       <c r="D5">
-        <v>0.7536228228305124</v>
+        <v>0.641</v>
       </c>
       <c r="E5">
-        <v>0.8085997897636171</v>
+        <v>0.723</v>
       </c>
       <c r="F5">
-        <v>0.6899832801865179</v>
+        <v>0.628</v>
       </c>
       <c r="G5">
-        <v>0.6894259263935134</v>
+        <v>0.612</v>
       </c>
       <c r="H5">
-        <v>0.6761262390440642</v>
+        <v>0.645</v>
       </c>
       <c r="I5">
-        <v>0.5195214586045592</v>
+        <v>0.386</v>
       </c>
       <c r="J5">
-        <v>0.7139174005651453</v>
+        <v>0.523</v>
       </c>
       <c r="K5">
-        <v>0.4602740024420558</v>
+        <v>0.377</v>
       </c>
       <c r="L5">
-        <v>0.7059293072531383</v>
+        <v>0.533</v>
       </c>
       <c r="M5">
-        <v>0.9059841512336223</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -686,40 +686,40 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.4559585492227979</v>
+        <v>0.456</v>
       </c>
       <c r="C6">
-        <v>0.9583703423134405</v>
+        <v>0.917</v>
       </c>
       <c r="D6">
-        <v>0.9257252114470322</v>
+        <v>0.876</v>
       </c>
       <c r="E6">
-        <v>0.9621735219833324</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F6">
-        <v>0.6069067003204945</v>
+        <v>0.591</v>
       </c>
       <c r="G6">
-        <v>0.6742642132738623</v>
+        <v>0.658</v>
       </c>
       <c r="H6">
-        <v>0.6929179442880538</v>
+        <v>0.674</v>
       </c>
       <c r="I6">
-        <v>0.772360860892399</v>
+        <v>0.736</v>
       </c>
       <c r="J6">
-        <v>0.9162260750048905</v>
+        <v>0.855</v>
       </c>
       <c r="K6">
-        <v>0.6121368323399523</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L6">
-        <v>0.8623668741811441</v>
+        <v>0.834</v>
       </c>
       <c r="M6">
-        <v>0.9757331429063613</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -727,40 +727,40 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.80775215833537</v>
+        <v>0.804</v>
       </c>
       <c r="C7">
-        <v>0.9059335862047639</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D7">
-        <v>0.916296280505282</v>
+        <v>0.82</v>
       </c>
       <c r="E7">
-        <v>0.9043385859866711</v>
+        <v>0.803</v>
       </c>
       <c r="F7">
-        <v>0.4244158299808659</v>
+        <v>0.333</v>
       </c>
       <c r="G7">
-        <v>0.678685033233017</v>
+        <v>0.603</v>
       </c>
       <c r="H7">
-        <v>0.3778614416085178</v>
+        <v>0.285</v>
       </c>
       <c r="I7">
-        <v>0.8778849692988194</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J7">
-        <v>0.9155264716427195</v>
+        <v>0.841</v>
       </c>
       <c r="K7">
-        <v>0.8591899392703123</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="L7">
-        <v>0.9239270944893636</v>
+        <v>0.843</v>
       </c>
       <c r="M7">
-        <v>0.9517909400111634</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -768,40 +768,40 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.8497409326424871</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
-        <v>0.8962984381329197</v>
+        <v>0.891</v>
       </c>
       <c r="D8">
-        <v>0.9316916921291591</v>
+        <v>0.912</v>
       </c>
       <c r="E8">
-        <v>0.8822193410110835</v>
+        <v>0.876</v>
       </c>
       <c r="F8">
-        <v>0.3819021076745417</v>
+        <v>0.378</v>
       </c>
       <c r="G8">
-        <v>0.6368542535190429</v>
+        <v>0.632</v>
       </c>
       <c r="H8">
-        <v>0.3316062176165803</v>
+        <v>0.332</v>
       </c>
       <c r="I8">
-        <v>0.8704663212435233</v>
+        <v>0.87</v>
       </c>
       <c r="J8">
-        <v>0.8881495903066077</v>
+        <v>0.881</v>
       </c>
       <c r="K8">
-        <v>0.8933069859609526</v>
+        <v>0.891</v>
       </c>
       <c r="L8">
-        <v>0.9085545029261791</v>
+        <v>0.902</v>
       </c>
       <c r="M8">
-        <v>0.9425537353843279</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -809,40 +809,40 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.4818652849740933</v>
+        <v>0.482</v>
       </c>
       <c r="C9">
-        <v>0.8959844890729955</v>
+        <v>0.886</v>
       </c>
       <c r="D9">
-        <v>0.8104054315568076</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="E9">
-        <v>0.9097883354470181</v>
+        <v>0.912</v>
       </c>
       <c r="F9">
-        <v>0.5652359600757132</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G9">
-        <v>0.6446023227485174</v>
+        <v>0.642</v>
       </c>
       <c r="H9">
-        <v>0.6546816237854574</v>
+        <v>0.653</v>
       </c>
       <c r="I9">
-        <v>0.5470329029491691</v>
+        <v>0.544</v>
       </c>
       <c r="J9">
-        <v>0.4870466321243523</v>
+        <v>0.487</v>
       </c>
       <c r="K9">
-        <v>0.6632124352331606</v>
+        <v>0.663</v>
       </c>
       <c r="L9">
-        <v>0.772020725388601</v>
+        <v>0.772</v>
       </c>
       <c r="M9">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -850,40 +850,40 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
       <c r="C10">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
       <c r="D10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
       <c r="E10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
       <c r="F10">
-        <v>0.9533678756476683</v>
+        <v>0.953</v>
       </c>
       <c r="G10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
       <c r="H10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
       <c r="I10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
       <c r="J10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
       <c r="K10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
       <c r="L10">
-        <v>0.9740932642487047</v>
+        <v>0.974</v>
       </c>
       <c r="M10">
-        <v>0.9844559585492227</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -891,40 +891,40 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>0.9378238341968912</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="C11">
-        <v>0.7357512953367875</v>
+        <v>0.736</v>
       </c>
       <c r="D11">
-        <v>0.7409326424870466</v>
+        <v>0.731</v>
       </c>
       <c r="E11">
-        <v>0.8341968911917098</v>
+        <v>0.839</v>
       </c>
       <c r="F11">
-        <v>0.7927461139896373</v>
+        <v>0.793</v>
       </c>
       <c r="G11">
-        <v>0.7823834196891192</v>
+        <v>0.782</v>
       </c>
       <c r="H11">
-        <v>0.7668393782383419</v>
+        <v>0.767</v>
       </c>
       <c r="I11">
-        <v>0.8963730569948186</v>
+        <v>0.896</v>
       </c>
       <c r="J11">
-        <v>0.7564766839378239</v>
+        <v>0.756</v>
       </c>
       <c r="K11">
-        <v>0.9015544041450777</v>
+        <v>0.902</v>
       </c>
       <c r="L11">
-        <v>0.7979274611398963</v>
+        <v>0.798</v>
       </c>
       <c r="M11">
-        <v>0.9948186528497409</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -932,40 +932,40 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.5284974093264249</v>
+        <v>0.528</v>
       </c>
       <c r="C12">
-        <v>0.8601036269430051</v>
+        <v>0.86</v>
       </c>
       <c r="D12">
-        <v>0.6632124352331606</v>
+        <v>0.663</v>
       </c>
       <c r="E12">
-        <v>0.8756476683937824</v>
+        <v>0.855</v>
       </c>
       <c r="F12">
-        <v>0.7875647668393783</v>
+        <v>0.788</v>
       </c>
       <c r="G12">
-        <v>0.8497409326424871</v>
+        <v>0.85</v>
       </c>
       <c r="H12">
-        <v>0.8186528497409327</v>
+        <v>0.819</v>
       </c>
       <c r="I12">
-        <v>0.5129533678756477</v>
+        <v>0.513</v>
       </c>
       <c r="J12">
-        <v>0.5751295336787565</v>
+        <v>0.575</v>
       </c>
       <c r="K12">
-        <v>0.538860103626943</v>
+        <v>0.539</v>
       </c>
       <c r="L12">
-        <v>0.7202072538860104</v>
+        <v>0.72</v>
       </c>
       <c r="M12">
-        <v>0.9533678756476683</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -973,40 +973,40 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.8031088082901554</v>
+        <v>0.803</v>
       </c>
       <c r="C13">
-        <v>0.8704663212435233</v>
+        <v>0.87</v>
       </c>
       <c r="D13">
-        <v>0.8652849740932642</v>
+        <v>0.865</v>
       </c>
       <c r="E13">
-        <v>0.9585492227979274</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F13">
-        <v>0.9378238341968912</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G13">
-        <v>0.9533678756476683</v>
+        <v>0.953</v>
       </c>
       <c r="H13">
-        <v>0.8341968911917098</v>
+        <v>0.834</v>
       </c>
       <c r="I13">
-        <v>0.8860103626943006</v>
+        <v>0.886</v>
       </c>
       <c r="J13">
-        <v>0.7927461139896373</v>
+        <v>0.793</v>
       </c>
       <c r="K13">
-        <v>0.8756476683937824</v>
+        <v>0.876</v>
       </c>
       <c r="L13">
-        <v>0.8652849740932642</v>
+        <v>0.865</v>
       </c>
       <c r="M13">
-        <v>0.9948186528497409</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1014,40 +1014,40 @@
         <v>25</v>
       </c>
       <c r="B14">
-        <v>0.9119170984455959</v>
+        <v>0.912</v>
       </c>
       <c r="C14">
-        <v>0.7202072538860104</v>
+        <v>0.72</v>
       </c>
       <c r="D14">
-        <v>0.9067357512953368</v>
+        <v>0.902</v>
       </c>
       <c r="E14">
-        <v>0.9430051813471503</v>
+        <v>0.953</v>
       </c>
       <c r="F14">
-        <v>0.9533678756476683</v>
+        <v>0.953</v>
       </c>
       <c r="G14">
-        <v>0.9067357512953368</v>
+        <v>0.907</v>
       </c>
       <c r="H14">
-        <v>0.9689119170984456</v>
+        <v>0.969</v>
       </c>
       <c r="I14">
-        <v>0.9689119170984456</v>
+        <v>0.969</v>
       </c>
       <c r="J14">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
       <c r="K14">
-        <v>0.9637305699481865</v>
+        <v>0.964</v>
       </c>
       <c r="L14">
-        <v>0.9430051813471503</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="M14">
-        <v>0.9948186528497409</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1055,40 +1055,40 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.4766839378238342</v>
+        <v>0.477</v>
       </c>
       <c r="C15">
-        <v>0.9689119170984456</v>
+        <v>0.969</v>
       </c>
       <c r="D15">
-        <v>0.917098445595855</v>
+        <v>0.922</v>
       </c>
       <c r="E15">
-        <v>0.9533678756476683</v>
+        <v>0.974</v>
       </c>
       <c r="F15">
-        <v>0.9119170984455959</v>
+        <v>0.912</v>
       </c>
       <c r="G15">
-        <v>0.9067357512953368</v>
+        <v>0.907</v>
       </c>
       <c r="H15">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
       <c r="I15">
-        <v>0.7772020725388601</v>
+        <v>0.777</v>
       </c>
       <c r="J15">
-        <v>0.9222797927461139</v>
+        <v>0.922</v>
       </c>
       <c r="K15">
-        <v>0.7253886010362695</v>
+        <v>0.725</v>
       </c>
       <c r="L15">
-        <v>0.9430051813471503</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="M15">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1096,40 +1096,40 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>0.3471502590673575</v>
+        <v>0.347</v>
       </c>
       <c r="C16">
-        <v>0.5025906735751295</v>
+        <v>0.503</v>
       </c>
       <c r="D16">
-        <v>0.844559585492228</v>
+        <v>0.834</v>
       </c>
       <c r="E16">
-        <v>0.538860103626943</v>
+        <v>0.487</v>
       </c>
       <c r="F16">
-        <v>0.4093264248704663</v>
+        <v>0.409</v>
       </c>
       <c r="G16">
-        <v>0.8082901554404145</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H16">
-        <v>0.4196891191709844</v>
+        <v>0.42</v>
       </c>
       <c r="I16">
-        <v>0.4974093264248705</v>
+        <v>0.497</v>
       </c>
       <c r="J16">
-        <v>0.6632124352331606</v>
+        <v>0.663</v>
       </c>
       <c r="K16">
-        <v>0.4715025906735751</v>
+        <v>0.472</v>
       </c>
       <c r="L16">
-        <v>0.6424870466321243</v>
+        <v>0.642</v>
       </c>
       <c r="M16">
-        <v>0.9533678756476683</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1137,40 +1137,40 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>0.1813471502590674</v>
+        <v>0.181</v>
       </c>
       <c r="C17">
-        <v>0.7564766839378239</v>
+        <v>0.756</v>
       </c>
       <c r="D17">
-        <v>0.7305699481865285</v>
+        <v>0.731</v>
       </c>
       <c r="E17">
-        <v>0.772020725388601</v>
+        <v>0.756</v>
       </c>
       <c r="F17">
-        <v>0.7150259067357513</v>
+        <v>0.715</v>
       </c>
       <c r="G17">
-        <v>0.689119170984456</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H17">
-        <v>0.8031088082901554</v>
+        <v>0.803</v>
       </c>
       <c r="I17">
-        <v>0.5699481865284974</v>
+        <v>0.57</v>
       </c>
       <c r="J17">
-        <v>0.7357512953367875</v>
+        <v>0.736</v>
       </c>
       <c r="K17">
-        <v>0.5129533678756477</v>
+        <v>0.513</v>
       </c>
       <c r="L17">
-        <v>0.7875647668393783</v>
+        <v>0.788</v>
       </c>
       <c r="M17">
-        <v>0.9222797927461139</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1178,40 +1178,40 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>0.9378238341968912</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="C18">
-        <v>0.6528497409326425</v>
+        <v>0.653</v>
       </c>
       <c r="D18">
-        <v>0.538860103626943</v>
+        <v>0.544</v>
       </c>
       <c r="E18">
-        <v>0.6632124352331606</v>
+        <v>0.601</v>
       </c>
       <c r="F18">
-        <v>0.6787564766839378</v>
+        <v>0.679</v>
       </c>
       <c r="G18">
-        <v>0.6010362694300518</v>
+        <v>0.601</v>
       </c>
       <c r="H18">
-        <v>0.7875647668393783</v>
+        <v>0.788</v>
       </c>
       <c r="I18">
-        <v>0.7616580310880829</v>
+        <v>0.762</v>
       </c>
       <c r="J18">
-        <v>0.7046632124352331</v>
+        <v>0.705</v>
       </c>
       <c r="K18">
-        <v>0.7202072538860104</v>
+        <v>0.72</v>
       </c>
       <c r="L18">
-        <v>0.7409326424870466</v>
+        <v>0.741</v>
       </c>
       <c r="M18">
-        <v>0.9896373056994818</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1219,40 +1219,40 @@
         <v>30</v>
       </c>
       <c r="B19">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="C19">
-        <v>0.9637305699481865</v>
+        <v>0.964</v>
       </c>
       <c r="D19">
-        <v>0.9689119170984456</v>
+        <v>0.959</v>
       </c>
       <c r="E19">
-        <v>0.9637305699481865</v>
+        <v>0.959</v>
       </c>
       <c r="F19">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="G19">
-        <v>0.9740932642487047</v>
+        <v>0.974</v>
       </c>
       <c r="H19">
-        <v>0.9740932642487047</v>
+        <v>0.974</v>
       </c>
       <c r="I19">
-        <v>0.9689119170984456</v>
+        <v>0.969</v>
       </c>
       <c r="J19">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="K19">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="L19">
-        <v>0.9637305699481865</v>
+        <v>0.964</v>
       </c>
       <c r="M19">
-        <v>0.9740932642487047</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1260,40 +1260,40 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <v>0.9481865284974094</v>
+        <v>0.948</v>
       </c>
       <c r="C20">
-        <v>0.9481865284974094</v>
+        <v>0.948</v>
       </c>
       <c r="D20">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="E20">
-        <v>0.9533678756476683</v>
+        <v>0.948</v>
       </c>
       <c r="F20">
-        <v>0.9430051813471503</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="G20">
-        <v>0.9689119170984456</v>
+        <v>0.969</v>
       </c>
       <c r="H20">
-        <v>0.9481865284974094</v>
+        <v>0.948</v>
       </c>
       <c r="I20">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="J20">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="K20">
-        <v>0.9481865284974094</v>
+        <v>0.948</v>
       </c>
       <c r="L20">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="M20">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1301,40 +1301,40 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="C21">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
       <c r="D21">
-        <v>0.9740932642487047</v>
+        <v>0.974</v>
       </c>
       <c r="E21">
-        <v>0.9740932642487047</v>
+        <v>0.964</v>
       </c>
       <c r="F21">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="G21">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
       <c r="H21">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
       <c r="I21">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="J21">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="K21">
-        <v>0.9585492227979274</v>
+        <v>0.959</v>
       </c>
       <c r="L21">
-        <v>0.9533678756476683</v>
+        <v>0.953</v>
       </c>
       <c r="M21">
-        <v>0.9792746113989638</v>
+        <v>0.979</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -522,40 +522,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.5610000000000001</v>
+        <v>0.205</v>
       </c>
       <c r="C2">
-        <v>0.86</v>
+        <v>0.453</v>
       </c>
       <c r="D2">
-        <v>0.85</v>
+        <v>0.655</v>
       </c>
       <c r="E2">
-        <v>0.873</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F2">
-        <v>0.598</v>
+        <v>0.634</v>
       </c>
       <c r="G2">
-        <v>0.698</v>
+        <v>0.7</v>
       </c>
       <c r="H2">
-        <v>0.63</v>
+        <v>0.657</v>
       </c>
       <c r="I2">
-        <v>0.652</v>
+        <v>0.346</v>
       </c>
       <c r="J2">
-        <v>0.749</v>
+        <v>0.492</v>
       </c>
       <c r="K2">
-        <v>0.637</v>
+        <v>0.31</v>
       </c>
       <c r="L2">
-        <v>0.798</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="M2">
-        <v>0.945</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -566,37 +566,37 @@
         <v>0.726</v>
       </c>
       <c r="C3">
-        <v>0.8139999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="D3">
-        <v>0.826</v>
+        <v>0.864</v>
       </c>
       <c r="E3">
-        <v>0.843</v>
+        <v>0.842</v>
       </c>
       <c r="F3">
-        <v>0.822</v>
+        <v>0.83</v>
       </c>
       <c r="G3">
         <v>0.856</v>
       </c>
       <c r="H3">
-        <v>0.844</v>
+        <v>0.838</v>
       </c>
       <c r="I3">
-        <v>0.796</v>
+        <v>0.795</v>
       </c>
       <c r="J3">
-        <v>0.819</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="K3">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="L3">
-        <v>0.847</v>
+        <v>0.846</v>
       </c>
       <c r="M3">
-        <v>0.974</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -604,40 +604,40 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>0.161</v>
+        <v>0.114</v>
       </c>
       <c r="C4">
-        <v>0.896</v>
+        <v>0.482</v>
       </c>
       <c r="D4">
-        <v>0.902</v>
+        <v>0.873</v>
       </c>
       <c r="E4">
-        <v>0.881</v>
+        <v>0.872</v>
       </c>
       <c r="F4">
-        <v>0.741</v>
+        <v>0.734</v>
       </c>
       <c r="G4">
-        <v>0.751</v>
+        <v>0.826</v>
       </c>
       <c r="H4">
-        <v>0.834</v>
+        <v>0.796</v>
       </c>
       <c r="I4">
-        <v>0.238</v>
+        <v>0.159</v>
       </c>
       <c r="J4">
-        <v>0.668</v>
+        <v>0.651</v>
       </c>
       <c r="K4">
-        <v>0.166</v>
+        <v>0.041</v>
       </c>
       <c r="L4">
-        <v>0.725</v>
+        <v>0.695</v>
       </c>
       <c r="M4">
-        <v>0.9330000000000001</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -645,40 +645,40 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.19</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C5">
-        <v>0.637</v>
+        <v>0.349</v>
       </c>
       <c r="D5">
-        <v>0.641</v>
+        <v>0.592</v>
       </c>
       <c r="E5">
-        <v>0.723</v>
+        <v>0.706</v>
       </c>
       <c r="F5">
-        <v>0.628</v>
+        <v>0.615</v>
       </c>
       <c r="G5">
-        <v>0.612</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H5">
-        <v>0.645</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="I5">
-        <v>0.386</v>
+        <v>0.297</v>
       </c>
       <c r="J5">
-        <v>0.523</v>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <v>0.377</v>
+        <v>0.261</v>
       </c>
       <c r="L5">
-        <v>0.533</v>
+        <v>0.485</v>
       </c>
       <c r="M5">
-        <v>0.897</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -686,40 +686,40 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.456</v>
+        <v>0.054</v>
       </c>
       <c r="C6">
-        <v>0.917</v>
+        <v>0.473</v>
       </c>
       <c r="D6">
+        <v>0.786</v>
+      </c>
+      <c r="E6">
         <v>0.876</v>
       </c>
-      <c r="E6">
-        <v>0.9330000000000001</v>
-      </c>
       <c r="F6">
-        <v>0.591</v>
+        <v>0.828</v>
       </c>
       <c r="G6">
-        <v>0.658</v>
+        <v>0.886</v>
       </c>
       <c r="H6">
-        <v>0.674</v>
+        <v>0.841</v>
       </c>
       <c r="I6">
-        <v>0.736</v>
+        <v>0.556</v>
       </c>
       <c r="J6">
-        <v>0.855</v>
+        <v>0.758</v>
       </c>
       <c r="K6">
-        <v>0.5600000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="L6">
-        <v>0.834</v>
+        <v>0.711</v>
       </c>
       <c r="M6">
-        <v>0.964</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -727,40 +727,40 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>0.804</v>
+        <v>0.156</v>
       </c>
       <c r="C7">
-        <v>0.8100000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="D7">
-        <v>0.82</v>
+        <v>0.228</v>
       </c>
       <c r="E7">
-        <v>0.803</v>
+        <v>0.249</v>
       </c>
       <c r="F7">
-        <v>0.333</v>
+        <v>0.186</v>
       </c>
       <c r="G7">
-        <v>0.603</v>
+        <v>0.224</v>
       </c>
       <c r="H7">
-        <v>0.285</v>
+        <v>0.187</v>
       </c>
       <c r="I7">
-        <v>0.8070000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J7">
-        <v>0.841</v>
+        <v>0.311</v>
       </c>
       <c r="K7">
-        <v>0.8179999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="L7">
-        <v>0.843</v>
+        <v>0.219</v>
       </c>
       <c r="M7">
-        <v>0.917</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -768,40 +768,40 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.891</v>
+        <v>0.323</v>
       </c>
       <c r="D8">
-        <v>0.912</v>
+        <v>0.312</v>
       </c>
       <c r="E8">
-        <v>0.876</v>
+        <v>0.306</v>
       </c>
       <c r="F8">
-        <v>0.378</v>
+        <v>0.353</v>
       </c>
       <c r="G8">
-        <v>0.632</v>
+        <v>0.441</v>
       </c>
       <c r="H8">
-        <v>0.332</v>
+        <v>0.314</v>
       </c>
       <c r="I8">
-        <v>0.87</v>
+        <v>0.103</v>
       </c>
       <c r="J8">
-        <v>0.881</v>
+        <v>0.143</v>
       </c>
       <c r="K8">
-        <v>0.891</v>
+        <v>0.154</v>
       </c>
       <c r="L8">
-        <v>0.902</v>
+        <v>0.259</v>
       </c>
       <c r="M8">
-        <v>0.9379999999999999</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -809,40 +809,40 @@
         <v>20</v>
       </c>
       <c r="B9">
-        <v>0.482</v>
+        <v>0.038</v>
       </c>
       <c r="C9">
-        <v>0.886</v>
+        <v>0.376</v>
       </c>
       <c r="D9">
-        <v>0.8129999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E9">
-        <v>0.912</v>
+        <v>0.835</v>
       </c>
       <c r="F9">
-        <v>0.5600000000000001</v>
+        <v>0.763</v>
       </c>
       <c r="G9">
-        <v>0.642</v>
+        <v>0.85</v>
       </c>
       <c r="H9">
-        <v>0.653</v>
+        <v>0.827</v>
       </c>
       <c r="I9">
-        <v>0.544</v>
+        <v>0.176</v>
       </c>
       <c r="J9">
-        <v>0.487</v>
+        <v>0.099</v>
       </c>
       <c r="K9">
-        <v>0.663</v>
+        <v>0.371</v>
       </c>
       <c r="L9">
-        <v>0.772</v>
+        <v>0.591</v>
       </c>
       <c r="M9">
-        <v>0.979</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -850,40 +850,40 @@
         <v>21</v>
       </c>
       <c r="B10">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="C10">
-        <v>0.979</v>
+        <v>0.985</v>
       </c>
       <c r="D10">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="E10">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="F10">
-        <v>0.953</v>
+        <v>0.959</v>
       </c>
       <c r="G10">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="H10">
-        <v>0.984</v>
+        <v>0.948</v>
       </c>
       <c r="I10">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="J10">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="K10">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="L10">
         <v>0.974</v>
       </c>
       <c r="M10">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -894,34 +894,34 @@
         <v>0.9379999999999999</v>
       </c>
       <c r="C11">
-        <v>0.736</v>
+        <v>0.912</v>
       </c>
       <c r="D11">
-        <v>0.731</v>
+        <v>0.918</v>
       </c>
       <c r="E11">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="F11">
-        <v>0.793</v>
+        <v>0.773</v>
       </c>
       <c r="G11">
-        <v>0.782</v>
+        <v>0.758</v>
       </c>
       <c r="H11">
-        <v>0.767</v>
+        <v>0.784</v>
       </c>
       <c r="I11">
-        <v>0.896</v>
+        <v>0.897</v>
       </c>
       <c r="J11">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="K11">
         <v>0.902</v>
       </c>
       <c r="L11">
-        <v>0.798</v>
+        <v>0.799</v>
       </c>
       <c r="M11">
         <v>0.995</v>
@@ -932,40 +932,40 @@
         <v>23</v>
       </c>
       <c r="B12">
-        <v>0.528</v>
+        <v>0.531</v>
       </c>
       <c r="C12">
-        <v>0.86</v>
+        <v>0.866</v>
       </c>
       <c r="D12">
-        <v>0.663</v>
+        <v>0.856</v>
       </c>
       <c r="E12">
-        <v>0.855</v>
+        <v>0.856</v>
       </c>
       <c r="F12">
-        <v>0.788</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="G12">
-        <v>0.85</v>
+        <v>0.881</v>
       </c>
       <c r="H12">
-        <v>0.819</v>
+        <v>0.887</v>
       </c>
       <c r="I12">
-        <v>0.513</v>
+        <v>0.515</v>
       </c>
       <c r="J12">
-        <v>0.575</v>
+        <v>0.577</v>
       </c>
       <c r="K12">
-        <v>0.539</v>
+        <v>0.541</v>
       </c>
       <c r="L12">
-        <v>0.72</v>
+        <v>0.722</v>
       </c>
       <c r="M12">
-        <v>0.953</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -973,37 +973,37 @@
         <v>24</v>
       </c>
       <c r="B13">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="C13">
-        <v>0.87</v>
+        <v>0.948</v>
       </c>
       <c r="D13">
-        <v>0.865</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="E13">
         <v>0.9330000000000001</v>
       </c>
       <c r="F13">
-        <v>0.9379999999999999</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="G13">
-        <v>0.953</v>
+        <v>0.959</v>
       </c>
       <c r="H13">
-        <v>0.834</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="I13">
-        <v>0.886</v>
+        <v>0.887</v>
       </c>
       <c r="J13">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="K13">
         <v>0.876</v>
       </c>
       <c r="L13">
-        <v>0.865</v>
+        <v>0.866</v>
       </c>
       <c r="M13">
         <v>0.995</v>
@@ -1017,22 +1017,22 @@
         <v>0.912</v>
       </c>
       <c r="C14">
-        <v>0.72</v>
+        <v>0.84</v>
       </c>
       <c r="D14">
-        <v>0.902</v>
+        <v>0.881</v>
       </c>
       <c r="E14">
-        <v>0.953</v>
+        <v>0.954</v>
       </c>
       <c r="F14">
-        <v>0.953</v>
+        <v>0.964</v>
       </c>
       <c r="G14">
         <v>0.907</v>
       </c>
       <c r="H14">
-        <v>0.969</v>
+        <v>0.974</v>
       </c>
       <c r="I14">
         <v>0.969</v>
@@ -1055,37 +1055,37 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>0.477</v>
+        <v>0.474</v>
       </c>
       <c r="C15">
+        <v>0.711</v>
+      </c>
+      <c r="D15">
+        <v>0.881</v>
+      </c>
+      <c r="E15">
         <v>0.969</v>
       </c>
-      <c r="D15">
-        <v>0.922</v>
-      </c>
-      <c r="E15">
-        <v>0.974</v>
-      </c>
       <c r="F15">
-        <v>0.912</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G15">
-        <v>0.907</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H15">
-        <v>0.979</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="I15">
-        <v>0.777</v>
+        <v>0.773</v>
       </c>
       <c r="J15">
-        <v>0.922</v>
+        <v>0.918</v>
       </c>
       <c r="K15">
-        <v>0.725</v>
+        <v>0.722</v>
       </c>
       <c r="L15">
-        <v>0.9429999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="M15">
         <v>0.979</v>
@@ -1096,40 +1096,40 @@
         <v>27</v>
       </c>
       <c r="B16">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="C16">
-        <v>0.503</v>
+        <v>0.397</v>
       </c>
       <c r="D16">
-        <v>0.834</v>
+        <v>0.835</v>
       </c>
       <c r="E16">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="F16">
-        <v>0.409</v>
+        <v>0.392</v>
       </c>
       <c r="G16">
-        <v>0.8080000000000001</v>
+        <v>0.871</v>
       </c>
       <c r="H16">
-        <v>0.42</v>
+        <v>0.392</v>
       </c>
       <c r="I16">
-        <v>0.497</v>
+        <v>0.495</v>
       </c>
       <c r="J16">
-        <v>0.663</v>
+        <v>0.66</v>
       </c>
       <c r="K16">
-        <v>0.472</v>
+        <v>0.469</v>
       </c>
       <c r="L16">
-        <v>0.642</v>
+        <v>0.639</v>
       </c>
       <c r="M16">
-        <v>0.953</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1137,40 +1137,40 @@
         <v>28</v>
       </c>
       <c r="B17">
-        <v>0.181</v>
+        <v>0.18</v>
       </c>
       <c r="C17">
-        <v>0.756</v>
+        <v>0.521</v>
       </c>
       <c r="D17">
-        <v>0.731</v>
+        <v>0.742</v>
       </c>
       <c r="E17">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="F17">
-        <v>0.715</v>
+        <v>0.773</v>
       </c>
       <c r="G17">
-        <v>0.6889999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="H17">
-        <v>0.803</v>
+        <v>0.701</v>
       </c>
       <c r="I17">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="J17">
-        <v>0.736</v>
+        <v>0.732</v>
       </c>
       <c r="K17">
-        <v>0.513</v>
+        <v>0.51</v>
       </c>
       <c r="L17">
-        <v>0.788</v>
+        <v>0.784</v>
       </c>
       <c r="M17">
-        <v>0.922</v>
+        <v>0.918</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>29</v>
       </c>
       <c r="B18">
-        <v>0.9379999999999999</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C18">
-        <v>0.653</v>
+        <v>0.82</v>
       </c>
       <c r="D18">
-        <v>0.544</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="E18">
-        <v>0.601</v>
+        <v>0.603</v>
       </c>
       <c r="F18">
-        <v>0.679</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="G18">
-        <v>0.601</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H18">
-        <v>0.788</v>
+        <v>0.747</v>
       </c>
       <c r="I18">
-        <v>0.762</v>
+        <v>0.758</v>
       </c>
       <c r="J18">
-        <v>0.705</v>
+        <v>0.701</v>
       </c>
       <c r="K18">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="L18">
-        <v>0.741</v>
+        <v>0.737</v>
       </c>
       <c r="M18">
         <v>0.99</v>
@@ -1222,11 +1222,11 @@
         <v>0.959</v>
       </c>
       <c r="C19">
+        <v>0.959</v>
+      </c>
+      <c r="D19">
         <v>0.964</v>
       </c>
-      <c r="D19">
-        <v>0.959</v>
-      </c>
       <c r="E19">
         <v>0.959</v>
       </c>
@@ -1234,10 +1234,10 @@
         <v>0.959</v>
       </c>
       <c r="G19">
-        <v>0.974</v>
+        <v>0.948</v>
       </c>
       <c r="H19">
-        <v>0.974</v>
+        <v>0.964</v>
       </c>
       <c r="I19">
         <v>0.969</v>
@@ -1252,7 +1252,7 @@
         <v>0.964</v>
       </c>
       <c r="M19">
-        <v>0.974</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1275,10 +1275,10 @@
         <v>0.9429999999999999</v>
       </c>
       <c r="G20">
-        <v>0.969</v>
+        <v>0.948</v>
       </c>
       <c r="H20">
-        <v>0.948</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="I20">
         <v>0.959</v>
@@ -1293,7 +1293,7 @@
         <v>0.959</v>
       </c>
       <c r="M20">
-        <v>0.979</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1304,10 +1304,10 @@
         <v>0.959</v>
       </c>
       <c r="C21">
+        <v>0.964</v>
+      </c>
+      <c r="D21">
         <v>0.979</v>
-      </c>
-      <c r="D21">
-        <v>0.974</v>
       </c>
       <c r="E21">
         <v>0.964</v>
@@ -1316,10 +1316,10 @@
         <v>0.959</v>
       </c>
       <c r="G21">
-        <v>0.979</v>
+        <v>0.954</v>
       </c>
       <c r="H21">
-        <v>0.979</v>
+        <v>0.964</v>
       </c>
       <c r="I21">
         <v>0.959</v>
@@ -1331,10 +1331,10 @@
         <v>0.959</v>
       </c>
       <c r="L21">
-        <v>0.953</v>
+        <v>0.954</v>
       </c>
       <c r="M21">
-        <v>0.979</v>
+        <v>0.974</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,52 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>L3.2-1B</t>
+          <t>L3.1-8B</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>L3.2-1B</t>
+          <t>L3.1-8B</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>L3.2-1B</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>L3.2-3B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>L3.2-3B</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>L3.2-3B</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>L3-8B</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>gpt-4om</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>gpt-4om</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>gpt-4om</t>
+          <t>L3.1-8B</t>
         </is>
       </c>
     </row>
@@ -512,43 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.602</v>
+        <v>0.694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.624</v>
+        <v>0.736</v>
       </c>
       <c r="D2" t="n">
-        <v>0.434</v>
+        <v>0.666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008</v>
+        <v>0.713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006</v>
+        <v>0.725</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.785</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.821</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.829</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="3">
@@ -558,943 +502,596 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.732</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.737</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.552</v>
+        <v>0.786</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003</v>
+        <v>0.806</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.147</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Method</t>
+          <t>CheckPoint</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>checkpoint-1200</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>checkpoint-1200</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>oneShot</t>
+          <t>checkpoint-1200</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>original</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>original</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>oneShot</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>advanced</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>oneShot</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>oneShot</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>advanced</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>oneShot</t>
+          <t>original</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>事故日期</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.484</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.842</v>
+          <t>Method</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>oneShot</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>oneShot</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>事發經過</t>
+          <t>事故日期</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.363</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.806</v>
       </c>
       <c r="D6" t="n">
-        <v>0.205</v>
+        <v>0.735</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.806</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.801</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.406</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.586</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.646</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>事故車出廠日期</t>
+          <t>事發經過</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.655</v>
+        <v>0.454</v>
       </c>
       <c r="C7" t="n">
-        <v>0.665</v>
+        <v>0.488</v>
       </c>
       <c r="D7" t="n">
-        <v>0.515</v>
+        <v>0.455</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.464</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.473</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.08699999999999999</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.676</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.838</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.909</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>傷勢</t>
+          <t>事故車出廠日期</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.441</v>
+        <v>0.796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.552</v>
+        <v>0.883</v>
       </c>
       <c r="D8" t="n">
-        <v>0.283</v>
+        <v>0.694</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.832</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.867</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.175</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.712</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.726</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.74</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>職業</t>
+          <t>傷勢</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.463</v>
       </c>
       <c r="C9" t="n">
-        <v>0.704</v>
+        <v>0.624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.423</v>
+        <v>0.505</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.595</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.145</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.868</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>折舊方法</t>
+          <t>職業</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.751</v>
+        <v>0.577</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.367</v>
+        <v>0.694</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.622</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.791</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.8169999999999999</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.888</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>被告肇責</t>
+          <t>折舊方法</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.91</v>
+        <v>0.765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.91</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.76</v>
+        <v>0.602</v>
       </c>
       <c r="E11" t="n">
-        <v>0.055</v>
+        <v>0.781</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.551</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.845</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.96</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>塗裝</t>
+          <t>被告肇責</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="C12" t="n">
-        <v>0.635</v>
+        <v>0.995</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.985</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.313</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.802</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>工資</t>
+          <t>塗裝</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.757</v>
+        <v>0.74</v>
       </c>
       <c r="C13" t="n">
-        <v>0.762</v>
+        <v>0.735</v>
       </c>
       <c r="D13" t="n">
-        <v>0.494</v>
+        <v>0.786</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.745</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.745</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.681</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.822</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>烤漆</t>
+          <t>工資</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.864</v>
+        <v>0.847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.843</v>
+        <v>0.847</v>
       </c>
       <c r="D14" t="n">
-        <v>0.642</v>
+        <v>0.74</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.837</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.842</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.909</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>鈑金</t>
+          <t>烤漆</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.695</v>
+        <v>0.908</v>
       </c>
       <c r="C15" t="n">
-        <v>0.701</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.642</v>
+        <v>0.862</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.929</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.954</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.353</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.804</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.898</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>耐用年數</t>
+          <t>鈑金</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="C16" t="n">
-        <v>0.879</v>
+        <v>0.837</v>
       </c>
       <c r="D16" t="n">
-        <v>0.571</v>
+        <v>0.872</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.773</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.96</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>修車費用</t>
+          <t>耐用年數</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.445</v>
+        <v>0.98</v>
       </c>
       <c r="C17" t="n">
-        <v>0.486</v>
+        <v>0.969</v>
       </c>
       <c r="D17" t="n">
-        <v>0.28</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.969</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.969</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.485</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>賠償金額總額</t>
+          <t>修車費用</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.583</v>
+        <v>0.52</v>
       </c>
       <c r="C18" t="n">
-        <v>0.609</v>
+        <v>0.541</v>
       </c>
       <c r="D18" t="n">
-        <v>0.423</v>
+        <v>0.51</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.526</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.546</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.523</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.669</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.699</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>保險給付金額</t>
+          <t>賠償金額總額</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.548</v>
+        <v>0.658</v>
       </c>
       <c r="C19" t="n">
-        <v>0.593</v>
+        <v>0.607</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.628</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.663</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.617</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.119</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.6870000000000001</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.583</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.623</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>居家看護天數</t>
+          <t>保險給付金額</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.859</v>
+        <v>0.622</v>
       </c>
       <c r="C20" t="n">
-        <v>0.869</v>
+        <v>0.653</v>
       </c>
       <c r="D20" t="n">
-        <v>0.642</v>
+        <v>0.791</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.628</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.658</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.904</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>居家看護費用</t>
+          <t>居家看護天數</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.859</v>
+        <v>0.949</v>
       </c>
       <c r="C21" t="n">
-        <v>0.864</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.632</v>
+        <v>0.888</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.944</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.718</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.883</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>居家看護費用</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>每日居家看護金額</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.778</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.914</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0.914</v>
+      <c r="B23" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.898</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>醫療費用</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.847</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>精神賠償</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.883</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.878</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,26 +449,6 @@
           <t>L3.1-8B</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>L3.1-8B</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>L3.1-8B</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>L3.1-8B</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>L3.1-8B</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -477,22 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.694</v>
+        <v>0.749</v>
       </c>
       <c r="C2" t="n">
-        <v>0.736</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.674</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.777</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.791</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="4">
@@ -533,26 +489,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>checkpoint-1200</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>checkpoint-1200</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>original</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>original</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>original</t>
         </is>
       </c>
@@ -565,32 +501,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>advanced</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>oneShot</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>advanced</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>oneShot</t>
         </is>
       </c>
     </row>
@@ -601,22 +517,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.914</v>
       </c>
       <c r="C6" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.801</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.745</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="7">
@@ -626,22 +530,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.454</v>
+        <v>0.528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.473</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.481</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="8">
@@ -651,22 +543,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.796</v>
+        <v>0.877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.832</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.719</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +556,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.463</v>
+        <v>0.589</v>
       </c>
       <c r="C9" t="n">
-        <v>0.624</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.505</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.49</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="10">
@@ -701,22 +569,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.577</v>
+        <v>0.802</v>
       </c>
       <c r="C10" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.694</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.622</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.709</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="11">
@@ -726,22 +582,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.765</v>
+        <v>0.546</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5659999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.602</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.781</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.551</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.607</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="12">
@@ -751,22 +595,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.99</v>
+        <v>0.988</v>
       </c>
       <c r="C12" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.985</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.969</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="13">
@@ -776,22 +608,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.74</v>
+        <v>0.638</v>
       </c>
       <c r="C13" t="n">
-        <v>0.735</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.776</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="14">
@@ -801,22 +621,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.847</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.847</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.745</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -826,22 +634,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.908</v>
+        <v>0.883</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.954</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.883</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="16">
@@ -851,22 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.75</v>
+        <v>0.748</v>
       </c>
       <c r="C16" t="n">
-        <v>0.837</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.872</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8110000000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.872</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="17">
@@ -876,22 +660,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="C17" t="n">
-        <v>0.969</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.969</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.969</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.827</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="18">
@@ -901,22 +673,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.52</v>
+        <v>0.429</v>
       </c>
       <c r="C18" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="19">
@@ -926,22 +686,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.658</v>
+        <v>0.644</v>
       </c>
       <c r="C19" t="n">
-        <v>0.607</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.628</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.617</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.597</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="20">
@@ -951,22 +699,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.622</v>
+        <v>0.595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.628</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.658</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.786</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="21">
@@ -976,22 +712,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.949</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.913</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="22">
@@ -1001,22 +725,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.929</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9340000000000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.908</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="23">
@@ -1026,22 +738,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.959</v>
+        <v>0.951</v>
       </c>
       <c r="C23" t="n">
-        <v>0.949</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9389999999999999</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.949</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.898</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1051,22 +751,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.867</v>
+        <v>0.908</v>
       </c>
       <c r="C24" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.852</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.867</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.847</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="25">
@@ -1076,22 +764,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.872</v>
+        <v>0.945</v>
       </c>
       <c r="C25" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.872</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.872</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.878</v>
+        <v>0.897</v>
       </c>
     </row>
   </sheetData>

--- a/data/eval/combined_data.xlsx
+++ b/data/eval/combined_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,92 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>L3.1-8B</t>
+          <t>golden</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>L3.1-8B</t>
+          <t>re</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gpt-4om</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gpt-4om</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gpt-4om</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gpt-4om</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B-Taiwan</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B-Taiwan</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B-Taiwan</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B-Taiwan</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B-Taiwan</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>L3-8B-Taiwan</t>
         </is>
       </c>
     </row>
@@ -457,10 +537,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.749</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.732</v>
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.193</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +598,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.777</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.771</v>
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.739</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.322</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +660,90 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>checkpoint-1200</t>
+          <t>original</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ft</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>checkpoint-900</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>checkpoint-900</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>checkpoint-900</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>checkpoint-900</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>checkpoint-900</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>checkpoint-900</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>original</t>
         </is>
@@ -501,12 +757,92 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>advanced</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>advanced</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>oneShot</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>oneShot</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>oneShot</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>oneShot</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>basic</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>advanced</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>oneShot</t>
         </is>
       </c>
     </row>
@@ -517,10 +853,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.914</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.903</v>
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +914,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.528</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.539</v>
+        <v>0.552</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -543,10 +975,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.877</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.823</v>
+        <v>0.884</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.156</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +1036,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.589</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.586</v>
+        <v>0.896</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.293</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +1097,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.802</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0.756</v>
+        <v>0.726</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.854</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="11">
@@ -582,10 +1158,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.546</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.529</v>
+        <v>0.884</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.046</v>
       </c>
     </row>
     <row r="12">
@@ -595,10 +1219,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.988</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.989</v>
+        <v>0.799</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.889</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.424</v>
       </c>
     </row>
     <row r="13">
@@ -608,10 +1280,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.638</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.651</v>
+        <v>0.957</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.345</v>
       </c>
     </row>
     <row r="14">
@@ -621,10 +1341,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.89</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.113</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +1402,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.883</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0.928</v>
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.848</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.247</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +1463,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.748</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0.762</v>
+        <v>0.982</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.806</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.537</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="17">
@@ -660,10 +1524,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.982</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.186</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +1585,58 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.429</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.412</v>
+      <c r="I18" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.119</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +1646,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.644</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.596</v>
+        <v>0.232</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.058</v>
       </c>
     </row>
     <row r="20">
@@ -699,10 +1707,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.595</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.59</v>
+        <v>0.927</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.412</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +1768,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9330000000000001</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.915</v>
+        <v>0.945</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.879</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="22">
@@ -725,10 +1829,58 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9330000000000001</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.903</v>
+        <v>0.86</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.866</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="23">
@@ -738,36 +1890,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.951</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9340000000000001</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>醫療費用</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.891</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>精神賠償</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.945</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.897</v>
+        <v>0.957</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.504</v>
       </c>
     </row>
   </sheetData>
